--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Страница 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,52 +496,87 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bogdan</t>
+          <t>800921300024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$MIkbCDc0Oj49cq2uEpDaVx$B7udta0fl73p2VkkdhqZRVdq8almEQumu2Gr7Fzw3vw=</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bogdandrienko@gmail.com</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>Kqo3LHFVjpQJ</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Алейников</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ИСТИНА</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Начальник отдела</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>800921300024</t>
+          <t>780616450151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>t8qp3JX73H</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>fypKDIbfjEUk</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Алейников</t>
+          <t>Алейникова</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -551,17 +586,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Владимировна</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>65403</t>
+          <t>65287</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -576,64 +611,64 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Сектор программного обеспечения</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Начальник отдела</t>
+          <t>Ведущий инженер-программист</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>780616450151</t>
+          <t>970801351179</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>xCX78NjqZu</t>
+          <t>It7qfRidW76q</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>bogdandrienko@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Алейникова</t>
+          <t>Андриенко</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Moderator</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>True</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Владимировна</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>65287</t>
+          <t>931777</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -653,7 +688,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист</t>
+          <t>Техник-программист</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -665,47 +700,43 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>910315350415</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6Pb6OLPT6N</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>Yt44lSPJUlDr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Андриенко</t>
+          <t>Вахонин</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>User, Moderator, Admin</t>
+          <t>User</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ИСТИНА</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>931777</t>
+          <t>931962</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -720,12 +751,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>Сектор технического обеспечения</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Техник-программист</t>
+          <t>Инженер - электронщик</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -737,27 +768,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>910315350415</t>
+          <t>810109400464</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1CtoGQXwkh</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>Sj4sSDv7FTfT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Ирина</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Вахонин</t>
+          <t>Драница</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -767,17 +794,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Сергеевна</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>931962</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -792,12 +819,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>Сектор программного обеспечения</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Инженер-программист I категории</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -809,27 +836,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>810109400464</t>
+          <t>881223350281</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1WZExNQUwL</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>ipJ1ZG6O43Jg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t>Руслан</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Драница</t>
+          <t>Малышев</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -839,17 +862,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Сергеевна</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>930275</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -864,12 +887,12 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>Сектор системного обеспечения</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Инженер-системотехник</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -881,27 +904,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>881223350281</t>
+          <t>880903351312</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tok731zDyT</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>rxTE89kLgypG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Руслан</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Малышев</t>
+          <t>Мозырев</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -911,17 +930,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Юрьевич</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>930275</t>
+          <t>932423</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -936,12 +955,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>Сектор технического обеспечения</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Инженер-системотехник</t>
+          <t>Инженер - электронщик</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -953,27 +972,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>880903351312</t>
+          <t>650414350253</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>04ak7WgBTX</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>BbkF3MBVU9Qn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Мозырев</t>
+          <t>Полозюк</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -983,17 +998,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>932423</t>
+          <t>65086</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1013,7 +1028,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Техник вычислительного центра</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1025,27 +1040,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>650414350253</t>
+          <t>831127350161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4NRU2UY1kN</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>LkvSKOEkpTwU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Виктор</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Полозюк</t>
+          <t>Пышный</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1055,17 +1066,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Юрьевич</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>65086</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1080,12 +1091,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>Сектор программного обеспечения</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Техник вычислительного центра</t>
+          <t>Инженер-программист I категории</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1097,27 +1108,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>831127350161</t>
+          <t>771123400344</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ahCoHXMcaa</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>r5nbUc1uigON</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Наталья</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Пышный</t>
+          <t>Рожкова</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1127,17 +1134,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Георгиевна</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1169,27 +1176,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>771123400344</t>
+          <t>850227350285</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NxnQveEjT7</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>wb8FxswzQqOp</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Рожкова</t>
+          <t>Стулов</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1199,17 +1202,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Георгиевна</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>931901</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1224,12 +1227,12 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>Сектор системного обеспечения</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1241,27 +1244,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>850227350285</t>
+          <t>730929301615</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ZXH2FTlDCu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>0WHl7a6sbpya</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Вячеслав</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Стулов</t>
+          <t>Тетенков</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1271,17 +1270,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ЛОЖЬ</t>
+          <t>False</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Алексеевич</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>931901</t>
+          <t>65047</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1301,82 +1300,10 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+          <t>Инженер I  категории (системный)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>730929301615</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>HQzKFDN6wo</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Вячеслав</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Тетенков</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ЛОЖЬ</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Алексеевич</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>65047</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Сектор системного обеспечения</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>Инженер I  категории (системный)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
         <is>
           <t>специалисты (пром)</t>
         </is>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,45 +449,50 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Активность</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Доступ к модерации</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Группы</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Доступ к модерации</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Отчество</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Табельный номер</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Подразделение</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Цех/Служба</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Отдел/Участок</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>Категория</t>
         </is>
@@ -496,124 +501,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>950528450546</t>
+          <t>800921300024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ur9Ccibpdp</t>
+          <t>Kqo3LHFVjpQJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарья </t>
+          <t>Алексей</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Казимирова </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Алейников</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>false</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Андреевна </t>
+          <t>User</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>933102</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Лаборант асбестообогатительного производства</t>
-        </is>
-      </c>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>Начальник отдела</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>790225300373</t>
+          <t>780616450151</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WIUv1rK6BV</t>
+          <t>fypKDIbfjEUk</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ан</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Алейникова</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>false</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Михайлович</t>
+          <t>User</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>933117</t>
+          <t>Владимировна</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>65287</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Управление предприятия (ЦК)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>Отдел информационных технологий</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Сектор программного обеспечения</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>Ведущий инженер-программист</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
@@ -625,13 +648,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UIjanoinq9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>It7qfRidW76q</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bogdandrienko@gmail.com</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11111111111</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -639,45 +666,711 @@
           <t>Андриенко</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>false</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1111111111111111111</t>
+          <t>User</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>931777</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Управа</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Управление предприятия (ЦК)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Отдел информационных технологий</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Сектор программного обеспечения</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Техник-программист</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>910315350415</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yt44lSPJUlDr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Вахонин</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>931962</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>810109400464</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sj4sSDv7FTfT</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Драница</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>881223350281</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ipJ1ZG6O43Jg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Малышев</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>930275</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Инженер-системотехник</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>880903351312</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>rxTE89kLgypG</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Мозырев</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>932423</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>650414350253</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>BbkF3MBVU9Qn</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Полозюк</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>65086</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Техник вычислительного центра</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>831127350161</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>LkvSKOEkpTwU</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Пышный</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>771123400344</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>r5nbUc1uigON</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Рожкова</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Георгиевна</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>850227350285</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>wb8FxswzQqOp</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Стулов</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>931901</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>730929301615</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0WHl7a6sbpya</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Вячеслав</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Тетенков</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>65047</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Инженер I  категории (системный)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,23 +501,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>800921300024</t>
+          <t>720806350335</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kqo3LHFVjpQJ</t>
+          <t>gLltxv2jN2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Игорь</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Алейников</t>
+          <t>Грядовкин</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -537,61 +537,65 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Алексеевич</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65403</t>
+          <t>933092</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Начальник отдела</t>
+          <t>Токарь</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>780616450151</t>
+          <t>790527402447</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fypKDIbfjEUk</t>
+          <t>GjKWKEhCNz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Ксения</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Алейникова</t>
+          <t>Лосева</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -606,69 +610,65 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Владимировна</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>65287</t>
+          <t>28057</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Ведущий инженер-программист</t>
+          <t>Оператор пульта управления</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>820311450639</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It7qfRidW76q</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bogdandrienko@gmail.com</t>
-        </is>
-      </c>
+          <t>McYWSXAQpl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Андриенко</t>
+          <t>Ивченко</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -683,60 +683,60 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>931777</t>
+          <t>932230</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Техник-программист</t>
+          <t>Машинист крана (крановщик мостового крана)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>910315350415</t>
+          <t>780223403679</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yt44lSPJUlDr</t>
+          <t>YkcWTl4nwD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t xml:space="preserve">Асем </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Вахонин</t>
+          <t>Бралина</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -756,32 +756,28 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t xml:space="preserve">Муратовна </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>931962</t>
+          <t>933093</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Сектор технического обеспечения</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Группа обслуживания                      </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Инженер по пожарной безопасности</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -793,28 +789,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>810109400464</t>
+          <t>810709400486</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sj4sSDv7FTfT</t>
+          <t>t6c6Bghj2Y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t xml:space="preserve">Кайырхан </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Драница</t>
+          <t>Машаев</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -829,60 +825,60 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Сергеевна</t>
+          <t>Бахчанович</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>931848</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>ЦЗ автотранспорт зарядный</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>881223350281</t>
+          <t>820116451171</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ipJ1ZG6O43Jg</t>
+          <t>aPVzuhKVcU</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Руслан</t>
+          <t>Карлагаш</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Малышев</t>
+          <t xml:space="preserve">Утарбаева </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -902,60 +898,60 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>КАРЖАУБАЕВНА</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>930275</t>
+          <t>933094</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Инженер-системотехник</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>880903351312</t>
+          <t>741007401841</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rxTE89kLgypG</t>
+          <t>Cejlw7Dylu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t xml:space="preserve">Юрий </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Мозырев</t>
+          <t xml:space="preserve">Елистратов </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -975,65 +971,65 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t xml:space="preserve">Валерьевич </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>932423</t>
+          <t>933095</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>участок по ремонту сантехнического оборудования</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Инженер - электронщик</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>650414350253</t>
+          <t>670705300982</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BbkF3MBVU9Qn</t>
+          <t>YxS7rw13yI</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Нуржан</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Полозюк</t>
+          <t>Аманов</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1048,65 +1044,65 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Жаксылыкович</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>65086</t>
+          <t>932727</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Сектор технического обеспечения</t>
+          <t>дизельные автомашины</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Техник вычислительного центра</t>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>831127350161</t>
+          <t>611022350313</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LkvSKOEkpTwU</t>
+          <t>NWQ8NEjS6M</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Юрий</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Пышный</t>
+          <t>Шишкин</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1121,60 +1117,60 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>932888</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>771123400344</t>
+          <t>910228450313</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>r5nbUc1uigON</t>
+          <t>ZvcoowvLZ8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t xml:space="preserve">Мадина </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Рожкова</t>
+          <t xml:space="preserve">Бегалинова </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1194,60 +1190,60 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Георгиевна</t>
+          <t xml:space="preserve">Кайратовна </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>933097</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t xml:space="preserve">Машинист РУМ </t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>850227350285</t>
+          <t>740421300746</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wb8FxswzQqOp</t>
+          <t>Uul07NhiHJ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t xml:space="preserve">Серик </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Стулов</t>
+          <t xml:space="preserve">Балыкбаев </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1267,110 +1263,5432 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t xml:space="preserve">Мухамедгалиевич </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>931901</t>
+          <t>933098</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+          <t>Тракторист (Т-150 в карьере)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>730929301615</t>
+          <t>581017300738</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0WHl7a6sbpya</t>
+          <t>Gz8xtEKTVW</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Вячеслав</t>
+          <t>Сексен</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Тетенков</t>
+          <t>Смаилов</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Сарсенович</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>960323351109</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B6tNN2ULKF</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Коробков</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>932146</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>930105350457</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3VaHj1AFYp</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Плахотников</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>true</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Алексеевич</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>65047</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Сектор системного обеспечения</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Инженер I  категории (системный)</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>932202</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик (в карьере)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>751109300040</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1k6fPvqgo9</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Салимжан</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Куантаев</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Ердаулетович</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>932870</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>840724450648</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a8DzkzNfAR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Надежда </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щербакова </t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>933099</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>990430450293</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>hO3cM4j1F0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Белоцерковская</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Дмитриевна</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>933100</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
         <is>
           <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>921111450635</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>AVX7O8Buh9</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кристина </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Романкулова </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>933101</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>950528450546</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HXEBY9QQVN</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дарья </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Казимирова </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Андреевна </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>933102</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>930722451179</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>j5orPSKnxK</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Нургуль</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Укасова </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Серимжановна</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>933096</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>960508350423</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>STEpkK1Qps</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Максим </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Данилов</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>933105</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>701103450359</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>edzOLGU9PW</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гуляева </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>933103</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Оператор АЗС</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>690101352846</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>dZqC3ZxNeC</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Марухненко</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>933104</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>910121351042</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lw0uU8RWnt</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Самат</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Жупанов</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Булатович</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>931484</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Мастер подстанций обогатит.комплекса</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>811121400125</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KLXq8VIyz6</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Жарова</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Рагимовна</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>933106</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Нарядчик</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>служащие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>940611351339</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>w447XgbsHC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Спорышев</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>933107</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>581021301321</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BXWTwjvnD7</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Василий</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Арсентьев</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>710831300214</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>IXZx48zTbx</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Воскресенский</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>932599</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>720204450120</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>eDr1nk9Btu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Мадина</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Байтышева</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Тынышпаевна</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>801029301016</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>fF14HKzhx4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>932440</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Участок СЦБ</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>760916350241</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a7XRq90csr</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергей </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прокофьев </t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>933003</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>780103300328</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>sOXQCYGy0k</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алексей </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Переверзин</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Витальевич</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>933004</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>810809350688</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LzVyLzv7YZ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Арсентьев </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>933108</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>010319551608</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SrbeRxoDC0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Турар</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Ахбердиев</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Сабитбекулы</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>933109</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>750430300390</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rYAXXy6iYM</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Свиридов</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>933110</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>930330350798</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>czQpZ9NS1K</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Канат</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Жакупов</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Ермекович</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>930407</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>900628350188</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>gTHJjvW576</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Прокаев</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>6206</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>860401350758</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>EvCl40UqzF</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Аулехан</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Мустафин</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Оразбекович</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>933111</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Участок по производству щебня</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>930108350334</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>tX2x0UPJBA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Лосев</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>933112</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>620919300134</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IVXl7zDgBL</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Моисеенко</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>14158</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ЦЗ взрывной</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Горнорабочий</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>830217350376</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MUP4xsnHxY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Матковский</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>931551</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>890509450896</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>024eZLSGYo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ишбердина</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>870323350386</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5USVV1b6xC</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Банцевич</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>930898</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Горный  диспетчер</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>581027350025</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ZfjWfxAQfQ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Тагир</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Мустакимов</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Жумабаевич</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>21185</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>910310450434</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PV6051plGW</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Айнура</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Исмагулова</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Сериковна</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>933007</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Специалист по кадрам</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>910702350706</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>vu5oxFDFX9</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темиржан </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ержанов </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сайлаубаевич </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>933115</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>760226301420</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FJJt24DOLK</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Штенгауэр</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Кондратьевич</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>933116</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>890403450502</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>VBUUJ6Lx6H</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Плотникова</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>6717</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>940128350375</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>s0xFnAF5dB</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Темирлан</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Катарбаев</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Сандибекович</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>930839</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>581020301495</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>eJE6FB2R4O</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Мурат</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Досмагамбетов</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>3303</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Аккумуляторщик</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>690329300833</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>hPia0t6kG3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Серик</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Кабылбеков</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Сейлханович</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>932215</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>991003350387</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gN2npQbeza</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Жандос</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Аблякимов</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Мурзабаевич</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>932265</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>960517350155</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FjA6kDTc9x</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Айбек</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Дуйсебаев</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Орынбасарович</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>932417</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>971128350195</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ILaLe4Rvdq</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Зайнутдинов</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>932628</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>991020450297</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>8N44g65kK4</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Фадеев</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>932670</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>790225300373</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>8ntQtzwRY2</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Михаил</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Ан</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Михайлович</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>933117</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>990902350579</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bfc11hlIyc</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Чагин</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Рушанович</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>933016</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>930911350439</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Pvatrgixqy</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стяжкин </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>933018</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>770309400104</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PUFw6j9i2W</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Кымбат</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Казмухамбетова</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Тулемисовна</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>933118</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>821206350703</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>JJqk4N51FY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Азамат</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ажикеев</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Бекетович</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>931408</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>731124350570</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5iZARCtlbX</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Еремин</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>932715</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Тракторист (МТЗ в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>901016350541</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>kAhrN4RJKT</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Петр</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Дикман</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>933119</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>581103300547</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>clQKrUrbhP</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Силаев</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>821212350022</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>W2qoe6QXeW</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Цыганец</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Степанович</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>932554</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>900826450765</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ziik9rx5Xb</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Галия</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Кудабаева</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Кадырсеитовна</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>932713</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>870310450503</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>PMCHcfyi9R</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Александра</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Вагнер</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Андреевна</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>932170</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>600313350442</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GtHF25PSAr</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кулаков </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>932296</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>автобусы</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (МАЗ)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>840523350064</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MWIYgGoJRl</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Сиренченко</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>932730</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>970522350917</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3WODyTK83n</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вячеслав </t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Медюхо</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Васильевич </t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>933086</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>930603350741</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>YjItoqMIvP</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Курмантай</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Абишев</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Сапарбекович</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>932151</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>880924350081</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>L0s3u82OPJ</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Лавров</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>933129</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>вывозка г/м БелАЗ</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ-7555 на вывозке горной массы в карьере)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>870515451388</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Gxcq2Do4du</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Козицкая</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>933120</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ремонт и содержание</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Машинист ВАУ</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>780806350168</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>w7PyZ6VehK</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Яков</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Штро</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>933128</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>780709301579</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Uxpdvfe2o3</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Архипов</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>933124</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>990914351018</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>JoRSfpTpVt</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Капинос</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>933125</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>950923351466</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>rngvXZxWLD</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Асхат</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Курмангалиев</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Куанышевич</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>932934</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>831231450391</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>AR38J63aG5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Олеся</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Гущерева</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Рамильевна</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>933121</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>840610451051</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AFC9yyflpH</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Любовь</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Мырза</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Викторовна</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>933122</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>911101451617</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ceTH2pE9Qk</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Зарина</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Горчешник</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Андреевна</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>933123</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>921029450658</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>9bCjAkiW9j</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Елизавета</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Сабадырь</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Алексеевна</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>933126</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>881205450715</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ghZvq0TjPn</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Ариана</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Морозова</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Анатольевна</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>933127</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>710804300257</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>pHlnlp8gJ1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Валерий</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Павленко</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>933130</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ЦЗ УММ</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Машинист железнодорожно-строительных (путевых) машин</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>820322451290</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>HDY94xpEMQ</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Василенко</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>933131</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>581109301499</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>gGb6aEteQt</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Булат</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Кульназаров</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Нагашбаевич</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>10861</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Машинист экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>810114350687</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>NKQhXbEgLq</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Лебедь</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>932906</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>980703451035</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HPjyb0q0wk</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Александра</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Кондрацкая</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Богдановна</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>933133</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6692,6 +6692,1685 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>970801351179</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>It7qfRidW76q</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>bogdandrienko@gmail.com</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Богдан</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Андриенко</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>931777</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Техник-программист</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>730211400273</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>7ieSNE5UXf</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Светлана</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Беккер</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>932068</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>800921300024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Kqo3LHFVjpQJ</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Алейников</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Начальник отдела</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>780616450151</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>fypKDIbfjEUk</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Алейникова</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>65287</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Ведущий инженер-программист</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>910315350415</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Yt44lSPJUlDr</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Вахонин</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>931962</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>810109400464</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sj4sSDv7FTfT</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Драница</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Сергеевна</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>881223350281</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ipJ1ZG6O43Jg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Малышев</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>930275</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Инженер-системотехник</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>880903351312</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>rxTE89kLgypG</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Мозырев</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>932423</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Инженер - электронщик</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>650414350253</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BbkF3MBVU9Qn</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Полозюк</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>65086</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Сектор технического обеспечения</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Техник вычислительного центра</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>831127350161</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LkvSKOEkpTwU</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Пышный</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>771123400344</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>r5nbUc1uigON</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Рожкова</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Георгиевна</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>65020</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Сектор программного обеспечения</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Инженер-программист I категории</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>850227350285</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>wb8FxswzQqOp</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Стулов</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>931901</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>730929301615</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0WHl7a6sbpya</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Вячеслав</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Тетенков</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>65047</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Управление предприятия (ЦК)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Отдел информационных технологий</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Сектор системного обеспечения</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Инженер I  категории (системный)</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>740908401014</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>udwUvvtj6H</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Гавриленко</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>28121</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>030319550267</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FYgBW3p3rB</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Данил</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Цыгель</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>933011</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Группа по ремонту и обслуживанию средств автоматизации</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>841002450546</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1FPHFWe3SS</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Мороз</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Константиновна</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>933136</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Машинист крана</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>810824450488</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4dAqrRRthl</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Динара</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Блеутенова</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Елеутаевна</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>933132</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>820916451246</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>l3dVtE3WGV</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Роза</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Кох</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Федоровна</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>933135</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>730227301609</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Lag9arYrJu</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Валихан</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Омаров</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Ауезканович</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>933134</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>621015300291</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>9UijOsoUDe</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Лопатин</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>700602301027</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Es9xzSReNj</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Сапарбай</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Джакупов </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Бахачьдьенович</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>932089</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>610328300526</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TiQ6Ghj0xt</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Пастерук</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Леонидович</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>84150</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>981229350215</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>7xZ9qMWZQ3</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Компаниец</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>932059</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8371,6 +8371,225 @@
         </is>
       </c>
     </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>000501550220</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>JnNyPr7P7t</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Хлюстов</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>932767</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>860811350876</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FNeFqqz2tr</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Морозов</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>933020</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>спецтранспорт</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ поливомоечная, щебнеразбрасыватель)</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>600718300297</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Frc59v2wYl</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Кайкулин</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,6 +498,6383 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>001001550700</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>xUdWbQ5Gz7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Адиль</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Байменов</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Байменович</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>932714</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Участок по эксплуатации электросетей в карьере</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>581001350787</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>yg4DWbe8V0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ермошин</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>611001401017</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9jLWAfVMwg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Аношкина</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Борисовна</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>28031</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>940427351150</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PnsdLz1MWD</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Поветкин</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>931626</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>770616301254</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4bFQOjQcav</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Марат</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Толеуханович</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>932569</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>771110450032</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ajFO3wEpX1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Алмагуль</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мусинова </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гайсаевна </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>933085</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>611003450019</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3CS9ZQ0NPL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Хлюстова</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Степановна</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7122</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>700120400540</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4FZMVKRXKo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Мубаракшина</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Технический отдел</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Инженер-технолог</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>810728300522</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M5bOHk81cn</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Новиков</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>931082</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Механик</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>700709350413</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>GQ1ynsnHXP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Оконешников</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>932066</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>971118351054</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>b6QdGA1otH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Губенко</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>933084</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>участок вулканизации лент</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>970522350917</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>39HQuy8qg7</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вячеслав </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Медюхо</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Васильевич </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>933086</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>640719300130</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cYyykUEYdx</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Якунин</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>11695</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Мастер электромеханик</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>921203350629</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>xzs9nAn9qL</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Антон</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Кислицын</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>931296</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Инженер по автоматизации производства I категории</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>960417351318</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>zEX33XDv0c</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Мейрам</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Шегреев</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Рахимбаевич </t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>933058</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>ремонтный персонал</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>940806350658</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fq1zPowrrO</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Адиль</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Жаримбетов</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Шуакбаевич</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>933087</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>891201351122</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mj21ceKD7h</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Арслан</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Тлекешов</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Жагпарович</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>7321</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>ремонт и содержание ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>901119351384</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>yv76PX1TvG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Артур</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Штро</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Яковлевич</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>931949</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>010424650305</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>LRBHaaTGbE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Евгения</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Колеснюк </t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>933088</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Участок тепловодоснабжения</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Оператор котельной </t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>960920450261</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lWz81A3Vzo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Жания</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Сыздыкова</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Исмагуловна</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>933089</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Инженер по автоматизации</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>891211400505</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Qh55XqRVfv</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Лоц</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Анатольевна</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>931679</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Уборщик помещений</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>850325350208</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>i29pYJ7B54</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Вячеслав</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Кисель</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>932607</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>960915350525</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DJGtDS7Ros</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Мирас</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Бурамбаев</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Серимжанович</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>932669</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>691116350140</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>oCg0j7j2gz</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Ермек</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Альмухамедов</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нуртазаевич </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>933091</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Бассейн "Алма-Ата"</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Сторож</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>780715301086</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rYsHswqbSd</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Ерёменко</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>933090</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>Ведущий экономист по планированию и анализу</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>640325402479</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F1tMYVBbej</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Рукиям</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Курбанова</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Розиевна</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>000007897</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Уборщик служебных помещений</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>810224350390</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JBGaqqRE6A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Денис</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Пластовец</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10908</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Отдел главного механика</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Ведущий инженер по ТОиР</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>940927350507</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rXBDgsevuU</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Кайырхан</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Мынжасаров</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Кайратович</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>931691</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>930219450720</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>7p7wKzoO5j</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Цыгулева</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Венедиктовна</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>932067</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Экономист по труду</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>720806350335</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MYUnJuXVSQ</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Игорь</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Грядовкин</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Алексеевич</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>933092</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Токарь</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>790527402447</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cZSkUA3RcI</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ксения</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Лосева</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Павловна</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>28057</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Оператор пульта управления</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>820311450639</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>7upAfDV2DL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Анна</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Ивченко</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Павловна</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>932230</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Машинист крана (крановщик мостового крана)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>780223403679</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NhlaFKrNDp</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Асем </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Бралина</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Муратовна </t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>933093</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Группа обслуживания                      </t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Инженер по пожарной безопасности</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>810709400486</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lMdcBWF1Rh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кайырхан </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Машаев</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Бахчанович</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>931848</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>820116451171</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>yszyzbwUFx</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Карлагаш</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Утарбаева </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>КАРЖАУБАЕВНА</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>933094</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>741007401841</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>xaKsiKXdzk</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юрий </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Елистратов </t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Валерьевич </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>933095</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>670705300982</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>kLFKZTboI6</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Нуржан</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Аманов</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Жаксылыкович</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>932727</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>611022350313</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PqpcQqZowl</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Шишкин</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>932888</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>910228450313</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RTLs7ha3bG</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мадина </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бегалинова </t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кайратовна </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>933097</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>740421300746</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3cXlJPdFl2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Серик </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Балыкбаев </t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Мухамедгалиевич </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>933098</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>581017300738</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>YLDGOT0ewN</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Сексен</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Смаилов</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Сарсенович</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>5110</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Тракторист (Т-150 в карьере)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>960323351109</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>phvxjxQVgZ</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Коробков</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>932146</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>930105350457</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>C8XOZciK5F</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Константин</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Плахотников</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>932202</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик (в карьере)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>751109300040</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>YBJ614Hx54</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Салимжан</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Куантаев</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Ердаулетович</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>932870</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>840724450648</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VGaEMLNxOY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Надежда </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Щербакова </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергеевна </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>933099</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>990430450293</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>jMiE1pJhJl</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Белоцерковская</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Дмитриевна</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>933100</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>921111450635</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UFfZb1idql</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кристина </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Романкулова </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>933101</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>950528450546</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>XOlwJyOaoQ</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дарья </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Казимирова </t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Андреевна </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>933102</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>930722451179</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QR2ENSaoX2</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Нургуль</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Укасова </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Серимжановна</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>933096</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>960508350423</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ZuQ0Y4yikq</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Максим </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Данилов</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>933105</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>701103450359</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>uvM83vgLaP</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Гуляева </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Васильевна</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>933103</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Оператор АЗС</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>690101352846</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>W7yQaDj4Xo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Марухненко</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александрович </t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>933104</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>бульдозерный участок</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Машинист бульдозера (в карьере)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>910121351042</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16ZzEDrGvx</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Самат</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Жупанов</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Булатович</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>931484</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Мастер подстанций обогатит.комплекса</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>руководители (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>811121400125</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>yFBjXsbZMl</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Жарова</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Рагимовна</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>933106</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Нарядчик</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>служащие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>940611351339</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DS3c4s9hj7</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Спорышев</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>933107</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>581021301321</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4vB9ttXVBJ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Василий</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Арсентьев</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>23100</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>710831300214</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>DoyOb4EySj</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Воскресенский</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>932599</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>720204450120</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>XBQVAj9hVt</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Мадина</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Байтышева</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Тынышпаевна</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>5140</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Производственная лаборатория технического контроля</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Лаборант асбестообогатительного производства</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>801029301016</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>acKikSxWSw</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>932440</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Участок СЦБ</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>760916350241</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>8DUjda6UvK</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сергей </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Прокофьев </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>933003</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>780103300328</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LiaMFzv3ef</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Алексей </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Переверзин</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Витальевич</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>933004</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>810809350688</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>gNOoftSket</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Арсентьев </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>933108</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>010319551608</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>UioK7K8TnB</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Турар</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ахбердиев</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Сабитбекулы</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>933109</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>750430300390</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>WnqQ8X1VbK</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Свиридов</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Валерьевич</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>933110</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>930330350798</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MFkio53IQS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Канат</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Жакупов</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Ермекович</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>930407</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>900628350188</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>wbHQt89Aw1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Виталий</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Прокаев</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>6206</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>860401350758</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>J9ZiFfUWsE</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Аулехан</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Мустафин</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Оразбекович</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>933111</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Участок по производству щебня</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Дробильщик</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>930108350334</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TSsVCZYixF</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Лосев</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>933112</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>620919300134</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eXK5AjIiJh</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Моисеенко</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Валентинович</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>14158</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>ЦЗ взрывной</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Горнорабочий</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>830217350376</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>d8ty56Zetn</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Матковский</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>931551</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>890509450896</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>6ZqJdptKAv</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Ишбердина</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>7131</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>870323350386</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>x9vWyp0Gxh</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Банцевич</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>930898</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Производственный отдел</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Горный  диспетчер</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>581027350025</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Oj0j7TtsSP</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Тагир</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Мустакимов</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Жумабаевич</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>21185</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>910310450434</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>XAiLK1Kgww</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Айнура</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Исмагулова</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Сериковна</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>933007</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Специалист по кадрам</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>910702350706</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5vUU4NEc3N</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Темиржан </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ержанов </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сайлаубаевич </t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>933115</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>760226301420</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>wAGkcjGJOg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Александр </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Штенгауэр</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Кондратьевич</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>933116</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>890403450502</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>6R2HdqvWDN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Плотникова</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>6717</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>940128350375</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>C42CFhTpKs</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Темирлан</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Катарбаев</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Сандибекович</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>930839</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>581020301495</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>K05AM454DZ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Мурат</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Досмагамбетов</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>3303</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>Аккумуляторщик</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>690329300833</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>7f6AoQKp68</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Серик</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Кабылбеков</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Сейлханович</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>932215</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>991003350387</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>pUIwZMTpl3</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Жандос</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Аблякимов</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Мурзабаевич</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>932265</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>960517350155</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>M4WM0ayJhe</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Айбек</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Дуйсебаев</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Орынбасарович</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>932417</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>971128350195</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>X40l177z53</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Вадим</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Зайнутдинов</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>932628</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>991020450297</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>MplfMNMBZB</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Фадеев</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Андреевич</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>932670</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>790225300373</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>qVRJpKAX74</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Михаил</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ан</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Михайлович</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>933117</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>950923351466</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>zFCTRZS58s</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Асхат</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Курмангалиев</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Куанышевич</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>932934</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>990902350579</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>S5VROY6wwS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Чагин</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Рушанович</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>933016</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>930911350439</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>weUwrQJ7Ui</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Стяжкин </t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>933018</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>970801351179</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BtdSesS8ru</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Богдан</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Андриенко</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>931777</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Управа</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ОИТ</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Управа</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Управа</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>Управа</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6875,6 +6875,3644 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>680101352735</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>GHyZb2affr</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Адельбек</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Бурантаев</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Бегайдарович</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>931512</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>легковые автомашины</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Уаз )</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>730211400273</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>u6TVGJjuX0</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Светлана</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Беккер</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Владимировна</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>932068</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>770309400104</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ZP6ENOZRMg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Кымбат</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Казмухамбетова</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Тулемисовна</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>933118</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>821206350703</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>yZyu2KfeH8</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Азамат</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ажикеев</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Бекетович</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>931408</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>731124350570</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0Pcu0MFCke</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Андрей</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Еремин</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>932715</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Тракторист (МТЗ в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>750618350207</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>naZpuBl5Je</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Мингали</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Базарбаев</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Кундыбаевич</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>933019</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Тракторист (МТЗ в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>901016350541</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>YtT2BgHr0k</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Петр</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Дикман</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Петрович</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>933119</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту автомобилей</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>581103300547</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>XdXXQid11y</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Силаев</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>821212350022</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>uSZ7vOX6kG</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Цыганец</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Степанович</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>932554</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>900826450765</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LDc8Uyevxl</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Галия</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Кудабаева</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Кадырсеитовна</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>932713</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>870310450503</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>KWv9hkFQvq</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Александра</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Вагнер</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Андреевна</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>932170</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>600313350442</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>eJ57wTCUl1</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Кулаков </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>932296</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>автобусы</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (МАЗ)</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>840523350064</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>gLLAfwUnfl</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Владимир</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Сиренченко</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>932730</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>930603350741</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>W385qR6vvO</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Курмантай</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Абишев</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Сапарбекович</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>932151</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>880924350081</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Yy2dWWTtel</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Лавров</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>933129</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>вывозка г/м БелАЗ</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ-7555 на вывозке горной массы в карьере)</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>870515451388</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>s7NiCQIy5p</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Козицкая</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>933120</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>ремонт и содержание</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Машинист ВАУ</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>780806350168</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8UJVb7yo0C</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Яков</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Штро</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>933128</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>780709301579</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>JjLNtPYUpi</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Евгений</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Архипов</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Вячеславович</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>933124</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>990914351018</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GwYqC9kaeC</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Капинос</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Васильевич</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>933125</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Грузчик</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>831231450391</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>4XSb8YH9Gs</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Олеся</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Гущерева</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Рамильевна</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>933121</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>840610451051</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>BN5BSDSAbK</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Любовь</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Мырза</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Викторовна</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>933122</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>911101451617</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>f3K6oHaWD8</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Зарина</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Горчешник</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Андреевна</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>933123</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>921029450658</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0RBTDWLZk0</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Елизавета</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Сабадырь</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Алексеевна</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>933126</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>881205450715</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>t4vkLvBlY0</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ариана</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Морозова</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Анатольевна</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>933127</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>710804300257</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>KzMDWgXqdT</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Валерий</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Павленко</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>933130</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>ЦЗ УММ</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Машинист железнодорожно-строительных (путевых) машин</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>820322451290</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2pQcE8uWFt</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Василенко</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Михайловна</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>933131</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>581109301499</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Di08qhHaSH</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Булат</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Кульназаров</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Нагашбаевич</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>10861</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Машинист экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>810114350687</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>WFvpPYvBJh</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Лебедь</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>932906</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>980703451035</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Zccbz6favB</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Александра</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Кондрацкая</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Богдановна</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>933133</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>740908401014</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>ABKdXf2eiY</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Гавриленко</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Александровна</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>28121</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Машинист РУМ</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>000501550220</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>3CDKt5aVCo</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Хлюстов</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>932767</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>030319550267</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>kHY1JRFtH9</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Данил</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Цыгель</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>933011</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Группа по ремонту и обслуживанию средств автоматизации</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>860811350876</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2XWfsZGH9v</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Морозов</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>933020</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>спецтранспорт</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (БелАЗ поливомоечная, щебнеразбрасыватель)</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>841002450546</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0rVc2Ad68i</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Мороз</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Константиновна</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>933136</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Машинист крана</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>810824450488</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>oLdoYQt5RY</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Динара</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Блеутенова</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Елеутаевна</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>933132</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>производственно-техническая служба ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>820916451246</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>qV6RY1Jexd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Роза</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Кох</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Федоровна</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>933135</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>730227301609</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Gn3RjRq3dP</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Валихан</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Омаров</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Ауезканович</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>933134</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>600718300297</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>t1LNAicF44</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Кайкулин</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>5673</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>621015300291</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>j4h5ltHR0W</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Сергей</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Лопатин</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>700602301027</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>xnOV9NC4Uc</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Сапарбай</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Джакупов </t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Бахачьдьенович</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>932089</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>610328300526</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>btbzhwnWsx</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Пастерук</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Леонидович</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>84150</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>981229350215</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>lpNidgKjLF</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Компаниец</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>932059</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>720115400235</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>FUpn1tcEjn</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Умсундык</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Жасакбаева</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жалкыбаевна  </t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>930265</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>691007300419</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>DM2ar6r0re</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Серик</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Мутлапов</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Рамазанович</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>781231350096</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>W8nESYEwk6</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Антонов</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>950924351550</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>zZ5zIzLRba</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Орловский</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>932603</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>880609350366</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>urbqRbOeIB</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Шугай</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>932615</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>ремонтники ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>990515350279</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>ZaAv9wPnjx</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Григорий</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Стяжкин</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>933137</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>610627301361</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>qqc80eECye</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Островский</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Антонович</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>933138</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>771230300914</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>JQC2MNe2GA</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Жакупов</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O124"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,23 +501,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>800921300024</t>
+          <t>970801351179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kqo3LHFVjpQJ</t>
+          <t>31284bogdan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Алексей</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Алейников</t>
+          <t>Андриенко</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -532,63 +532,59 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>Superuser, User</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>65403</t>
+          <t>931777</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>ОИТ</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Управа</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Начальник отдела</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>Управа</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>780616450151</t>
+          <t>Bogdan123123</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fypKDIbfjEUk</t>
+          <t>1111111111111111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Татьяна</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Алейникова</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>true</t>
@@ -599,73 +595,29 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Владимировна</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>65287</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Сектор программного обеспечения</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Ведущий инженер-программист</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>970801351178</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It7qfRidW76q</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bogdandrienko@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Богдан</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Андриенко</t>
-        </is>
-      </c>
+          <t>1111111111111111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>true</t>
@@ -676,69 +628,29 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>931777</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Сектор программного обеспечения</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Техник-программист</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>910315350415</t>
+          <t>111111111111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yt44lSPJUlDr</t>
+          <t>1111111111111111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Вахонин</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>true</t>
@@ -749,69 +661,29 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>931962</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Сектор технического обеспечения</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Инженер - электронщик</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>810109400464</t>
+          <t>222222222222</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sj4sSDv7FTfT</t>
+          <t>2222222222222222</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Ирина</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Драница</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>true</t>
@@ -822,67 +694,39 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Сергеевна</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>3135</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Сектор программного обеспечения</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Инженер-программист I категории</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>881223350281</t>
+          <t>333333333333</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ipJ1ZG6O43Jg</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>3333333333333333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bogdandrienko@gmail.com</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Руслан</t>
+          <t>Фамилия</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Малышев</t>
+          <t>Имя</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -892,72 +736,60 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Отчество</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>930275</t>
+          <t>931777</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Упр</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>ОИТ</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>Сектор ПО</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Инженер-системотехник</t>
+          <t>Программист</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>ИТР</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>880903351312</t>
+          <t>444444444444</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rxTE89kLgypG</t>
+          <t>4444444444444444</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Антон</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Мозырев</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>true</t>
@@ -968,72 +800,32 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Юрьевич</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>932423</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Сектор технического обеспечения</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Инженер - электронщик</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>650414350253</t>
+          <t>555555555555</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BbkF3MBVU9Qn</t>
+          <t>5555555555555555</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Владимир</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Полозюк</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1041,67 +833,35 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>65086</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Управление предприятия (ЦК)</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Отдел информационных технологий</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Сектор технического обеспечения</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Техник вычислительного центра</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>831127350161</t>
+          <t>001001550700</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LkvSKOEkpTwU</t>
+          <t>PUDqKGvNe6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Виктор</t>
+          <t>Адиль</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Пышный</t>
+          <t>Байменов</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1121,65 +881,65 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Байменович</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>932714</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>Участок по эксплуатации электросетей в карьере</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>771123400344</t>
+          <t>581001350787</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>r5nbUc1uigON</t>
+          <t>8KRSgjVe60</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Николай</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Рожкова</t>
+          <t>Ермошин</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1194,65 +954,65 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Георгиевна</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>65020</t>
+          <t>5438</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Сектор программного обеспечения</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Инженер-программист I категории</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>850227350285</t>
+          <t>611001401017</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>wb8FxswzQqOp</t>
+          <t>Xzw7wL9eLs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Ирина</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Стулов</t>
+          <t>Аношкина</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1267,65 +1027,65 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Борисовна</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>931901</t>
+          <t>28031</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Инженер I категории (системный администратор, администратор баз данных)</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>730929301615</t>
+          <t>940427351150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0WHl7a6sbpya</t>
+          <t>Q9T3fPniln</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Вячеслав</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Тетенков</t>
+          <t>Поветкин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1340,65 +1100,65 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Алексеевич</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>65047</t>
+          <t>931626</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Управление предприятия (ЦК)</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Отдел информационных технологий</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Сектор системного обеспечения</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Инженер I  категории (системный)</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>950528450546</t>
+          <t>770616301254</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6510HkwbMF</t>
+          <t>eCnHNH4x3p</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарья </t>
+          <t>Марат</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Казимирова </t>
+          <t>Кусаинов</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1413,28 +1173,32 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Андреевна </t>
+          <t>Толеуханович</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>933102</t>
+          <t>932569</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>дизельные автомашины</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1446,23 +1210,23 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>930722451179</t>
+          <t>771110450032</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WLioDMJovZ</t>
+          <t>6ftUiHuJ11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Нургуль</t>
+          <t>Алмагуль</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Укасова </t>
+          <t xml:space="preserve">Мусинова </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1482,65 +1246,65 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Серимжановна</t>
+          <t xml:space="preserve">Гайсаевна </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>933096</t>
+          <t>933085</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба управления делами</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Стадион "Горняк"</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Рабочий по комплексному обслуживанию</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>960508350423</t>
+          <t>611003450019</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LeRiE3WSSI</t>
+          <t>54uutT0yAN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Максим </t>
+          <t>Галина</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Данилов</t>
+          <t>Хлюстова</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1555,60 +1319,60 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Степановна</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>933105</t>
+          <t>7122</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Служба управления делами</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Стадион "Горняк"</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Рабочий по комплексному обслуживанию</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>701103450359</t>
+          <t>700120400540</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>EOYGQpB6oN</t>
+          <t>9QSdezfv82</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Наталья</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гуляева </t>
+          <t>Мубаракшина</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1628,57 +1392,61 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Васильевна</t>
+          <t>Николаевна</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>933103</t>
+          <t>28475</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Технический отдел</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Оператор АЗС</t>
+          <t>Инженер-технолог</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>690101352846</t>
+          <t>810728300522</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SAoRNGF4TL</t>
+          <t>LMBn32ECfQ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Марухненко</t>
+          <t>Новиков</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1693,65 +1461,65 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александрович </t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>933104</t>
+          <t>931082</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>бульдозерный участок</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Машинист бульдозера (в карьере)</t>
+          <t>Механик</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>910121351042</t>
+          <t>700709350413</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>uJqC6daeuB</t>
+          <t>K3RdjOaWAv</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Самат</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Жупанов</t>
+          <t>Оконешников</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1766,61 +1534,65 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Булатович</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>931484</t>
+          <t>932066</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Мастер подстанций обогатит.комплекса</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>811121400125</t>
+          <t>971118351054</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LuqQwbWtt7</t>
+          <t>BjUsghjkF3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Марина</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Жарова</t>
+          <t>Губенко</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1835,60 +1607,60 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Рагимовна</t>
+          <t>Валерьевич</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>933106</t>
+          <t>933084</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>участок вулканизации лент</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Нарядчик</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>служащие (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>940611351339</t>
+          <t>970522350917</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>wyV7BvSy3a</t>
+          <t>IcE3scyuCZ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t xml:space="preserve">Вячеслав </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Спорышев</t>
+          <t>Медюхо</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1908,32 +1680,28 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t xml:space="preserve">Васильевич </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>933107</t>
+          <t>933086</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1945,28 +1713,28 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>581021301321</t>
+          <t>640719300130</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jNUp2BdSkN</t>
+          <t>WnsyCuUbng</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Василий</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Арсентьев</t>
+          <t>Якунин</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1981,60 +1749,56 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>11695</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Мастер электромеханик</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>710831300214</t>
+          <t>921203350629</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>eLjWLZwsG9</t>
+          <t>6aoncrUDjF</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Воскресенский</t>
+          <t>Кислицын</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2054,60 +1818,60 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>932599</t>
+          <t>931296</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Служба автоматизации</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>Экспериментально-конструкторская группа</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Инженер по автоматизации производства I категории</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>720204450120</t>
+          <t>960417351318</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GIN9Vbx86N</t>
+          <t>3MCdgZ7Evp</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Мадина</t>
+          <t>Мейрам</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Байтышева</t>
+          <t>Шегреев</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2127,28 +1891,32 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Тынышпаевна</t>
+          <t xml:space="preserve">Рахимбаевич </t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>933058</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Цех технологического транспорта</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>ремонтный персонал</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2160,23 +1928,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>801029301016</t>
+          <t>940806350658</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jus4rRSxYh</t>
+          <t>l9lUFNPPbT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Анатолий</t>
+          <t>Адиль</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Жаримбетов</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2196,12 +1964,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Шуакбаевич</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>932440</t>
+          <t>933087</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2211,17 +1979,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Участок СЦБ</t>
+          <t>Участок отвалообразования</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2233,23 +2001,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>760916350241</t>
+          <t>891201351122</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VfJTO9agZh</t>
+          <t>skz7Ap3cCB</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергей </t>
+          <t>Арслан</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прокофьев </t>
+          <t>Тлекешов</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2269,32 +2037,32 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Жагпарович</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>933003</t>
+          <t>7321</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>ремонт и содержание ЦДиСХР</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2306,23 +2074,23 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>780103300328</t>
+          <t>901119351384</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3z7IRJUWcI</t>
+          <t>cUlHzqSOQp</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Алексей </t>
+          <t>Артур</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Переверзин</t>
+          <t>Штро</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2342,32 +2110,32 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Витальевич</t>
+          <t>Яковлевич</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>933004</t>
+          <t>931949</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>производственно-техническая служба ЦДиСХР</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2379,23 +2147,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>810809350688</t>
+          <t>010424650305</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ar4lsGrjGI</t>
+          <t>R3Bi78inve</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Евгения</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Арсентьев </t>
+          <t xml:space="preserve">Колеснюк </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2415,32 +2183,28 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Васильевич</t>
+          <t xml:space="preserve">Сергеевна </t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>933108</t>
+          <t>933088</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t xml:space="preserve">Оператор котельной </t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2452,23 +2216,23 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>010319551608</t>
+          <t>960920450261</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>qgMGys3TDc</t>
+          <t>Tn6Nulv400</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Турар</t>
+          <t>Жания</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ахбердиев</t>
+          <t>Сыздыкова</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2488,57 +2252,65 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Сабитбекулы</t>
+          <t>Исмагуловна</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>933109</t>
+          <t>933089</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Грузчик</t>
+          <t>Инженер по автоматизации</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>750430300390</t>
+          <t>891211400505</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pv3VsDdG4U</t>
+          <t>4Y7SnV9Q9Z</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t>Анастасия</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Свиридов</t>
+          <t>Лоц</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2553,60 +2325,52 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Валерьевич</t>
+          <t>Анатольевна</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>933110</t>
+          <t>931679</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>участок по капитальному ремонту</t>
-        </is>
-      </c>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Уборщик помещений</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>930330350798</t>
+          <t>850325350208</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>YivIfPC2jD</t>
+          <t>XNgQFkq3eW</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Канат</t>
+          <t>Вячеслав</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Жакупов</t>
+          <t>Кисель</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2626,12 +2390,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Ермекович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>930407</t>
+          <t>932607</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2641,17 +2405,13 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Участок подвижного состава</t>
-        </is>
-      </c>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2663,23 +2423,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>900628350188</t>
+          <t>960915350525</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ZxZAIkGKaL</t>
+          <t>HuS5gNBspN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Мирас</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Прокаев</t>
+          <t>Бурамбаев</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2699,12 +2459,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Серимжанович</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>932669</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2714,17 +2474,13 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Участок подвижного состава</t>
-        </is>
-      </c>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2736,23 +2492,23 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>860401350758</t>
+          <t>691116350140</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vsGs0A4G3G</t>
+          <t>sKqFvv3XZb</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Аулехан</t>
+          <t>Ермек</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Мустафин</t>
+          <t>Альмухамедов</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2772,60 +2528,60 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Оразбекович</t>
+          <t xml:space="preserve">Нуртазаевич </t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>933111</t>
+          <t>933091</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
+          <t>Служба управления делами</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Участок по производству щебня</t>
+          <t>Бассейн "Алма-Ата"</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Дробильщик</t>
+          <t>Сторож</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>930108350334</t>
+          <t>780715301086</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>rpTXoFvhql</t>
+          <t>npD8kBABVg</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Лосев</t>
+          <t>Ерёменко</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2845,12 +2601,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Юрьевич</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>933112</t>
+          <t>933090</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2860,45 +2616,41 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Ведущий экономист по планированию и анализу</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>620919300134</t>
+          <t>640325402479</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bs2wpVNG4C</t>
+          <t>sCeGNt6CNa</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Рукиям</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Моисеенко</t>
+          <t>Курбанова</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2918,32 +2670,24 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Валентинович</t>
+          <t>Розиевна</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>14158</t>
+          <t>000007897</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Буровзрывной цех</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>ЦЗ взрывной</t>
-        </is>
-      </c>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Горнорабочий</t>
+          <t>Уборщик служебных помещений</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2955,28 +2699,28 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>830217350376</t>
+          <t>810224350390</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>oRCMS6sCQc</t>
+          <t>2hUgDfBEZO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Денис</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Матковский</t>
+          <t>Пластовец</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2991,65 +2735,61 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>931551</t>
+          <t>10908</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Участок железнодорожных путей</t>
+          <t>Отдел главного механика</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
+          <t>Ведущий инженер по ТОиР</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>890509450896</t>
+          <t>940927350507</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MCtXCSqWV5</t>
+          <t>3RZCSE4Q3Q</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Анастасия</t>
+          <t>Кайырхан</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ишбердина</t>
+          <t>Мынжасаров</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3064,56 +2804,60 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Кайратович</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>931691</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Отдел стандартизации и метрологии</t>
+          <t>Участок добычи</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Инженер по метрологии II категории</t>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>870323350386</t>
+          <t>930219450720</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>fOpk1tTFlT</t>
+          <t>BE0Vy5TGvS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Банцевич</t>
+          <t>Цыгулева</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3133,12 +2877,12 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Венедиктовна</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>930898</t>
+          <t>932067</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -3149,12 +2893,12 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Производственный отдел</t>
+          <t>Отдел по экономике и развитию</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Горный  диспетчер</t>
+          <t>Экономист по труду</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3166,28 +2910,28 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>581027350025</t>
+          <t>720806350335</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2hMMV0VVva</t>
+          <t>aRJh2ZOzed</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Тагир</t>
+          <t>Игорь</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Мустакимов</t>
+          <t>Грядовкин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3202,32 +2946,32 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Жумабаевич</t>
+          <t>Алексеевич</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>21185</t>
+          <t>933092</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>участок по ремонту сантехнического оборудования</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Токарь</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3239,23 +2983,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>910310450434</t>
+          <t>790527402447</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4w0Mj4oIvO</t>
+          <t>AOKSGu8vBC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Айнура</t>
+          <t>Ксения</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Исмагулова</t>
+          <t>Лосева</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3275,65 +3019,65 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Сериковна</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>933007</t>
+          <t>28057</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Служба управления персоналом</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Отдел кадров</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Специалист по кадрам</t>
+          <t>Оператор пульта управления</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>910702350706</t>
+          <t>820311450639</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SOMkOzV2Jz</t>
+          <t>tHUT3V9Xhe</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Темиржан </t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ержанов </t>
+          <t>Ивченко</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3348,28 +3092,32 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сайлаубаевич </t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>933115</t>
+          <t>932230</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист крана (крановщик мостового крана)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3381,23 +3129,23 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>760226301420</t>
+          <t>780223403679</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>dHvQcIkQSj</t>
+          <t>lhCWPho56C</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t xml:space="preserve">Асем </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Штенгауэр</t>
+          <t>Бралина</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3417,65 +3165,61 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Кондратьевич</t>
+          <t xml:space="preserve">Муратовна </t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>933116</t>
+          <t>933093</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>ЦЗ осушение карьера</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Группа обслуживания                      </t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Инженер по пожарной безопасности</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>890403450502</t>
+          <t>810709400486</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>h6NGIKeuKz</t>
+          <t>r1MJYr1PK1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t xml:space="preserve">Кайырхан </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Плотникова</t>
+          <t>Машаев</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3490,32 +3234,32 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Михайловна</t>
+          <t>Бахчанович</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>6717</t>
+          <t>931848</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>ЦЗ автотранспорт зарядный</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3527,28 +3271,28 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>940128350375</t>
+          <t>820116451171</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>n7uPezwolg</t>
+          <t>5MhRjp1FbH</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Темирлан</t>
+          <t>Карлагаш</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Катарбаев</t>
+          <t xml:space="preserve">Утарбаева </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3563,12 +3307,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Сандибекович</t>
+          <t>КАРЖАУБАЕВНА</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>930839</t>
+          <t>933094</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3578,17 +3322,17 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>участок по ремонту ГПМ</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3600,28 +3344,28 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>581020301495</t>
+          <t>741007401841</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ofvBFM0Zg6</t>
+          <t>tvlJjyNj3n</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Мурат</t>
+          <t xml:space="preserve">Юрий </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Досмагамбетов</t>
+          <t xml:space="preserve">Елистратов </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3634,26 +3378,34 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Валерьевич </t>
+        </is>
+      </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>933095</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Цех по ремонту машин</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Аккумуляторщик</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3665,28 +3417,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>690329300833</t>
+          <t>670705300982</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kc5pPKCbnP</t>
+          <t>FdbvCGUKNO</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Серик</t>
+          <t>Нуржан</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Кабылбеков</t>
+          <t>Аманов</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3701,32 +3453,32 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Сейлханович</t>
+          <t>Жаксылыкович</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>932215</t>
+          <t>932727</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>дизельные автомашины</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3738,28 +3490,28 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>991003350387</t>
+          <t>611022350313</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>czb6jTJEgM</t>
+          <t>0RtWiZ1tjP</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Жандос</t>
+          <t>Юрий</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Аблякимов</t>
+          <t>Шишкин</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3774,28 +3526,32 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Мурзабаевич</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>932265</t>
+          <t>932888</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3807,23 +3563,23 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>960517350155</t>
+          <t>910228450313</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>rCg1ZQlnGT</t>
+          <t>2ReCUl7CLG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Айбек</t>
+          <t xml:space="preserve">Мадина </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Дуйсебаев</t>
+          <t xml:space="preserve">Бегалинова </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3843,12 +3599,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Орынбасарович</t>
+          <t xml:space="preserve">Кайратовна </t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>932417</t>
+          <t>933097</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3858,17 +3614,17 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t xml:space="preserve">Машинист РУМ </t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3880,23 +3636,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>971128350195</t>
+          <t>740421300746</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>wliAUN1UK0</t>
+          <t>jbgKhysAI9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t xml:space="preserve">Серик </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Зайнутдинов</t>
+          <t xml:space="preserve">Балыкбаев </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3916,32 +3672,32 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Евгеньевич</t>
+          <t xml:space="preserve">Мухамедгалиевич </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>932628</t>
+          <t>933098</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Тракторист (Т-150 в карьере)</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3953,28 +3709,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>991020450297</t>
+          <t>581017300738</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3iiQTYrIhg</t>
+          <t>YUNraWt79p</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Сексен</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Фадеев</t>
+          <t>Смаилов</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3989,32 +3745,32 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Сарсенович</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>932670</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Участок отвалообразования</t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+          <t>Тракторист (Т-150 в карьере)</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4026,28 +3782,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>790225300373</t>
+          <t>960323351109</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4pMtvMeHf4</t>
+          <t>wwlwT2waFo</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Ан</t>
+          <t>Коробков</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4062,12 +3818,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Михайлович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>933117</t>
+          <t>932146</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4077,17 +3833,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4099,23 +3855,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>010427551144</t>
+          <t>930105350457</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>YgdIg8csdO</t>
+          <t>Kj3aSGqzQM</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Рамир</t>
+          <t>Константин</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Муллагалиев</t>
+          <t>Плахотников</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4135,32 +3891,32 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Ринатович</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>932999</t>
+          <t>932202</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Служба автоматизации</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Монтажно-наладочная группа</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+          <t>Электрогазосварщик (в карьере)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4172,23 +3928,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>990902350579</t>
+          <t>751109300040</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CDpb2aXsek</t>
+          <t>liOGoNwUFi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Салимжан</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Чагин</t>
+          <t>Куантаев</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4208,28 +3964,32 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Рушанович</t>
+          <t>Ердаулетович</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>933016</t>
+          <t>932870</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4241,23 +4001,23 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>930911350439</t>
+          <t>840724450648</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>XeD6CFH8Od</t>
+          <t>K9OlM6abvC</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t xml:space="preserve">Надежда </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стяжкин </t>
+          <t xml:space="preserve">Щербакова </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4277,28 +4037,32 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t xml:space="preserve">Сергеевна </t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>933018</t>
+          <t>933099</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -4310,23 +4074,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>680101352735</t>
+          <t>990430450293</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FZa0yf6etr</t>
+          <t>xx9Rp0ODpK</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Адельбек</t>
+          <t>Ольга</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Бурантаев</t>
+          <t>Белоцерковская</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4346,60 +4110,56 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Бегайдарович</t>
+          <t>Дмитриевна</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>931512</t>
+          <t>933100</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>легковые автомашины</t>
+          <t>Отдел стандартизации и метрологии</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Уаз )</t>
+          <t>Инженер по метрологии II категории</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>600718300297</t>
+          <t>921111450635</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>G16xaCGB8x</t>
+          <t>RPw8j5ZiCu</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t xml:space="preserve">Кристина </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Кайкулин</t>
+          <t xml:space="preserve">Романкулова </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4419,32 +4179,32 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5673</t>
+          <t>933101</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4456,23 +4216,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>730211400273</t>
+          <t>950528450546</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>WIcVclkj1V</t>
+          <t>HXT1wr8M4P</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Светлана</t>
+          <t xml:space="preserve">Дарья </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Беккер</t>
+          <t xml:space="preserve">Казимирова </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4492,32 +4252,28 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Владимировна</t>
+          <t xml:space="preserve">Андреевна </t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>932068</t>
+          <t>933102</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4529,23 +4285,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>770309400104</t>
+          <t>930722451179</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>VLZjn22XtF</t>
+          <t>n0gZlvVK3W</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Кымбат</t>
+          <t>Нургуль</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Казмухамбетова</t>
+          <t xml:space="preserve">Укасова </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4565,12 +4321,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Тулемисовна</t>
+          <t>Серимжановна</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>933118</t>
+          <t>933096</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4585,12 +4341,12 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Машинист РУМ </t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4602,28 +4358,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>821206350703</t>
+          <t>960508350423</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NsVzbOKz40</t>
+          <t>KRMjGbFUP8</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Азамат</t>
+          <t xml:space="preserve">Максим </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ажикеев</t>
+          <t>Данилов</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4638,12 +4394,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Бекетович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>931408</t>
+          <t>933105</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4658,12 +4414,12 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Участок отвалообразования</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4675,28 +4431,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>731124350570</t>
+          <t>701103450359</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ORzKpuiBYV</t>
+          <t>PSlBwMxK7F</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Еремин</t>
+          <t xml:space="preserve">Гуляева </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -4711,32 +4467,24 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Васильевна</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>932715</t>
+          <t>933103</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>механизмы</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Тракторист (МТЗ в карьере сменный)</t>
+          <t>Оператор АЗС</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4748,23 +4496,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>750618350207</t>
+          <t>690101352846</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EINYbrgOBV</t>
+          <t>NPBxrL5Qqw</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Мингали</t>
+          <t xml:space="preserve">Александр </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Базарбаев</t>
+          <t>Марухненко</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4784,12 +4532,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Кундыбаевич</t>
+          <t xml:space="preserve">Александрович </t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>933019</t>
+          <t>933104</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4799,17 +4547,17 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех технологического транспорта</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>механизмы</t>
+          <t>бульдозерный участок</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Тракторист (МТЗ в карьере сменный)</t>
+          <t>Машинист бульдозера (в карьере)</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4821,28 +4569,28 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>901016350541</t>
+          <t>910121351042</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>rSRZaZO7k0</t>
+          <t>VC4Cl4oyb9</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Петр</t>
+          <t>Самат</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Дикман</t>
+          <t>Жупанов</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4857,60 +4605,56 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Петрович</t>
+          <t>Булатович</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>933119</t>
+          <t>931484</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>Буровзрывной цех</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>ЦЗ автотранспорт зарядный</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту автомобилей</t>
+          <t>Мастер подстанций обогатит.комплекса</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>581103300547</t>
+          <t>811121400125</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DEBfhFpqN6</t>
+          <t>lX5zoieXSG</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Марина</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Силаев</t>
+          <t>Жарова</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4930,12 +4674,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Рагимовна</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>3658</t>
+          <t>933106</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4945,50 +4689,50 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Нарядчик</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>служащие (пром)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>821212350022</t>
+          <t>940611351339</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>XY89XsazFR</t>
+          <t>2AbTqf9lNL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Цыганец</t>
+          <t>Спорышев</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5003,32 +4747,32 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Степанович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>932554</t>
+          <t>933107</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5040,23 +4784,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>900826450765</t>
+          <t>581021301321</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>vOCkrKTFE8</t>
+          <t>EqvywffwrW</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Галия</t>
+          <t>Василий</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Кудабаева</t>
+          <t>Арсентьев</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5076,12 +4820,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Кадырсеитовна</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>932713</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -5091,17 +4835,17 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5113,28 +4857,28 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>700602301027</t>
+          <t>710831300214</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>aJjYQjkEJi</t>
+          <t>eG5lOnJhBc</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Сапарбай</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Джакупов </t>
+          <t>Воскресенский</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5149,32 +4893,32 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Бахачьдьенович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>932089</t>
+          <t>932599</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5186,28 +4930,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>870310450503</t>
+          <t>720204450120</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>YtOJ3OoRXY</t>
+          <t>5eRDj8FuqC</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Александра</t>
+          <t>Мадина</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Вагнер</t>
+          <t>Байтышева</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5222,32 +4966,28 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Андреевна</t>
+          <t>Тынышпаевна</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>932170</t>
+          <t>5140</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5259,23 +4999,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>600313350442</t>
+          <t>801029301016</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ftK7P5wrMe</t>
+          <t>g02gqFj4Mi</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t>Анатолий</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кулаков </t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5295,32 +5035,32 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>932296</t>
+          <t>932440</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>автобусы</t>
+          <t>Участок СЦБ</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (МАЗ)</t>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5332,28 +5072,28 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>840523350064</t>
+          <t>760916350241</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>x8Mfyangip</t>
+          <t>DZeebnieKv</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t xml:space="preserve">Сергей </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Сиренченко</t>
+          <t xml:space="preserve">Прокофьев </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5368,32 +5108,32 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>932730</t>
+          <t>933003</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5405,23 +5145,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>970522350917</t>
+          <t>780103300328</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55fTXGNkO4</t>
+          <t>dpKrQrkakD</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вячеслав </t>
+          <t xml:space="preserve">Алексей </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Медюхо</t>
+          <t>Переверзин</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5441,28 +5181,32 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Васильевич </t>
+          <t>Витальевич</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>933086</t>
+          <t>933004</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5474,23 +5218,23 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>930603350741</t>
+          <t>810809350688</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>dQtZMcn7iz</t>
+          <t>6U2i5hwMTa</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Курмантай</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Абишев</t>
+          <t xml:space="preserve">Арсентьев </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -5510,28 +5254,32 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Сапарбекович</t>
+          <t>Васильевич</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>932151</t>
+          <t>933108</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5543,23 +5291,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>880924350081</t>
+          <t>010319551608</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZyTWICl0lg</t>
+          <t>lfQXBEv7GV</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Турар</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Лавров</t>
+          <t>Ахбердиев</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5579,32 +5327,24 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Сабитбекулы</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>933129</t>
+          <t>933109</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>Цех технологического транспорта</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>вывозка г/м БелАЗ</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (БелАЗ-7555 на вывозке горной массы в карьере)</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
@@ -5616,23 +5356,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>870515451388</t>
+          <t>750430300390</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>p9SLc8uSkl</t>
+          <t>8dhR5oypkx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Козицкая</t>
+          <t>Свиридов</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5652,12 +5392,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Валерьевич</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>933120</t>
+          <t>933110</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5667,17 +5407,17 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>ремонт и содержание</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Машинист ВАУ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
@@ -5689,23 +5429,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>780806350168</t>
+          <t>930330350798</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>9GyRqzeMTs</t>
+          <t>bslFg6nQvW</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Яков</t>
+          <t>Канат</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Штро</t>
+          <t>Жакупов</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -5725,32 +5465,32 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Ермекович</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>933128</t>
+          <t>930407</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5762,23 +5502,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>780709301579</t>
+          <t>900628350188</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cRstUXKlIv</t>
+          <t>c4BnJe5Fvb</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Архипов</t>
+          <t>Прокаев</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -5798,12 +5538,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Вячеславович</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>933124</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5818,12 +5558,12 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Участок железнодорожных путей</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
@@ -5835,23 +5575,23 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>990914351018</t>
+          <t>860401350758</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Z1AAoN7OWl</t>
+          <t>cuy437CGFa</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Владислав</t>
+          <t>Аулехан</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Капинос</t>
+          <t>Мустафин</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5871,24 +5611,32 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Васильевич</t>
+          <t>Оразбекович</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>933125</t>
+          <t>933111</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Участок по производству щебня</t>
+        </is>
+      </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Грузчик</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5900,23 +5648,23 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>950923351466</t>
+          <t>930108350334</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5Vd3N5QOWe</t>
+          <t>9zZhL3ufC8</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Асхат</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Курмангалиев</t>
+          <t>Лосев</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5936,12 +5684,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Куанышевич</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>932934</t>
+          <t>933112</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5951,17 +5699,17 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5973,23 +5721,23 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>831231450391</t>
+          <t>620919300134</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOSZzPwQHz</t>
+          <t>5ZG5cwF5Ye</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Олеся</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Гущерева</t>
+          <t>Моисеенко</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -6009,32 +5757,32 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Рамильевна</t>
+          <t>Валентинович</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>933121</t>
+          <t>14158</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>ЦЗ взрывной</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Машинист РУМ </t>
+          <t>Горнорабочий</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6046,28 +5794,28 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>840610451051</t>
+          <t>830217350376</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>aFqBkXfCnl</t>
+          <t>ep2j6NE22o</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Любовь</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Мырза</t>
+          <t>Матковский</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6082,32 +5830,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Викторовна</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>933122</t>
+          <t>931551</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Участок железнодорожных путей</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -6119,28 +5867,28 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>911101451617</t>
+          <t>890509450896</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A6Fz1E30XG</t>
+          <t>ZQIaJoZktG</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Зарина</t>
+          <t>Анастасия</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Горчешник</t>
+          <t>Ишбердина</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6155,60 +5903,56 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Андреевна</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>933123</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Отдел стандартизации и метрологии</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Инженер по метрологии II категории</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>921029450658</t>
+          <t>870323350386</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>QgjJR2bfhH</t>
+          <t>vigLAtCCBV</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Елизавета</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Сабадырь</t>
+          <t>Банцевич</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6228,65 +5972,61 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Алексеевна</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>933126</t>
+          <t>930898</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Производственный отдел</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Горный  диспетчер</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>881205450715</t>
+          <t>581027350025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Szu7G5xZ5v</t>
+          <t>oATuXE6fyO</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Ариана</t>
+          <t>Тагир</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Морозова</t>
+          <t>Мустакимов</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6301,12 +6041,12 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Жумабаевич</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>933127</t>
+          <t>21185</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -6316,17 +6056,17 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>участок по ремонту сантехнического оборудования</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6338,28 +6078,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>710804300257</t>
+          <t>910310450434</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>sS7k5elZ6u</t>
+          <t>OnD8idAfLK</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Валерий</t>
+          <t>Айнура</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Павленко</t>
+          <t>Исмагулова</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6374,60 +6114,60 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Дмитриевич</t>
+          <t>Сериковна</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>933130</t>
+          <t>933007</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба управления персоналом</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>ЦЗ УММ</t>
+          <t>Отдел кадров</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Машинист железнодорожно-строительных (путевых) машин</t>
+          <t>Специалист по кадрам</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>820322451290</t>
+          <t>910702350706</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tdzcvJMTaT</t>
+          <t>lF44reFaLw</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t xml:space="preserve">Темиржан </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Василенко</t>
+          <t xml:space="preserve">Ержанов </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6447,32 +6187,28 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Михайловна</t>
+          <t xml:space="preserve">Сайлаубаевич </t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>933131</t>
+          <t>933115</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6484,28 +6220,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>581109301499</t>
+          <t>760226301420</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TdUU7HKwpa</t>
+          <t>EJ7Ld7HGAT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Булат</t>
+          <t xml:space="preserve">Александр </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Кульназаров</t>
+          <t>Штенгауэр</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6520,12 +6256,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Нагашбаевич</t>
+          <t>Кондратьевич</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>933116</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6540,12 +6276,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Участок добычи</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Машинист экскаватора (в карьере)</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6557,28 +6293,28 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>810114350687</t>
+          <t>890403450502</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>sNHQ5OHYAQ</t>
+          <t>rWTrMsahy7</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Елена</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Лебедь</t>
+          <t>Плотникова</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -6593,12 +6329,12 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Михайловна</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>932906</t>
+          <t>6717</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -6608,17 +6344,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6630,23 +6366,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>980703451035</t>
+          <t>940128350375</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DjBGBMM4uG</t>
+          <t>h0SL2icOiP</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Александра</t>
+          <t>Темирлан</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Кондрацкая</t>
+          <t>Катарбаев</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6666,12 +6402,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Богдановна</t>
+          <t>Сандибекович</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>933133</t>
+          <t>930839</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6681,17 +6417,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>участок по ремонту ГПМ</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6703,28 +6439,28 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>870118350345</t>
+          <t>581020301495</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>u1rLNdDplX</t>
+          <t>tDP8cWJ4CL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Рамиль</t>
+          <t>Мурат</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ахметов</t>
+          <t>Досмагамбетов</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6737,58 +6473,54 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>Гумарович</t>
-        </is>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr">
         <is>
-          <t>4701</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Управление ГТК</t>
+          <t>Цех по ремонту машин</t>
         </is>
       </c>
       <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Инженер по ТОиР</t>
+          <t>Аккумуляторщик</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>740908401014</t>
+          <t>690329300833</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>FvIo1WvjRz</t>
+          <t>7haSB9TR4w</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Юлия</t>
+          <t>Серик</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Гавриленко</t>
+          <t>Кабылбеков</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6808,32 +6540,32 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Сейлханович</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>28121</t>
+          <t>932215</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6845,28 +6577,28 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>000501550220</t>
+          <t>991003350387</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>slFixfkqeP</t>
+          <t>FYY3R2oZ2V</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Жандос</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Хлюстов</t>
+          <t>Аблякимов</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -6881,32 +6613,28 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Евгеньевич</t>
+          <t>Мурзабаевич</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>932767</t>
+          <t>932265</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Участок железнодорожных путей</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
@@ -6918,23 +6646,23 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>030319550267</t>
+          <t>960517350155</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kc2Plzxfil</t>
+          <t>EnxrsbeW49</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Данил</t>
+          <t>Айбек</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Цыгель</t>
+          <t>Дуйсебаев</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6954,32 +6682,32 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Орынбасарович</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>933011</t>
+          <t>932417</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Служба автоматизации</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Группа по ремонту и обслуживанию средств автоматизации</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -6991,28 +6719,28 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>860811350876</t>
+          <t>971128350195</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>E9iWL1Ek8l</t>
+          <t>oH1RCFgFVe</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Морозов</t>
+          <t>Зайнутдинов</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7027,32 +6755,32 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>933020</t>
+          <t>932628</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>спецтранспорт</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (БелАЗ поливомоечная, щебнеразбрасыватель)</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O92" t="inlineStr">
@@ -7064,23 +6792,23 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>841002450546</t>
+          <t>991020450297</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>18GLE37zKb</t>
+          <t>fCCpZTYZCe</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Мороз</t>
+          <t>Фадеев</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -7100,32 +6828,32 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Константиновна</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>933136</t>
+          <t>932670</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>участок по ремонту ГПМ</t>
+          <t>Участок отвалообразования</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>Машинист крана</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
@@ -7137,23 +6865,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>810824450488</t>
+          <t>790225300373</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>d4RKMDRuUc</t>
+          <t>pEQZMSvB9k</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Динара</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Блеутенова</t>
+          <t>Ан</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -7173,32 +6901,32 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Елеутаевна</t>
+          <t>Михайлович</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>933132</t>
+          <t>933117</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>производственно-техническая служба ЦДиСХР</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
@@ -7210,23 +6938,23 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>820916451246</t>
+          <t>950923351466</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tus5LOTlw9</t>
+          <t>VfHSv97rbI</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Роза</t>
+          <t>Асхат</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Кох</t>
+          <t>Курмангалиев</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -7246,12 +6974,12 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>Федоровна</t>
+          <t>Куанышевич</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>933135</t>
+          <t>932934</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7261,17 +6989,17 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
@@ -7283,23 +7011,23 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>730227301609</t>
+          <t>990902350579</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>siXMLO48XF</t>
+          <t>9ybnp54TFy</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Валихан</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Омаров</t>
+          <t>Чагин</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7319,32 +7047,28 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Ауезканович</t>
+          <t>Рушанович</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>933134</t>
+          <t>933016</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
@@ -7356,23 +7080,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>621015300291</t>
+          <t>930911350439</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2GyJ42Uu5A</t>
+          <t>kCybTkEotc</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Лопатин</t>
+          <t xml:space="preserve">Стяжкин </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -7392,1998 +7116,31 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Дмитриевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>6432</t>
+          <t>933018</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>981229350215</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>BeJ0Ry3Pdw</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Виктор</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Компаниец</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>Викторович</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>932059</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>Служба автоматизации</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>Экспериментально-конструкторская группа</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>720115400235</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>XNXGb9eW5G</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>Умсундык</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Жасакбаева</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Жалкыбаевна  </t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>930265</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Машинист РУМ </t>
-        </is>
-      </c>
-      <c r="O99" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>691007300419</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>3nWPnHlMiv</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>Серик</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Мутлапов</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>Рамазанович</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>3193</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>Служба управления делами</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>Стадион "Горняк"</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>Рабочий по комплексному обслуживанию</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>рабочие (непром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>781231350096</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>V4w0UgZsYO</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>Анатолий</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Антонов</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>7280</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Участок железнодорожных путей</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>741226300342</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>lGgkOw8Nuy</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Анатолий</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Бабенко</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>Геннадьевич</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>931217</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>Служба управления делами</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Административно-хозяйственный отдел</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>Подсобный рабочий</t>
-        </is>
-      </c>
-      <c r="O102" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>721027400195</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>ynLT3k7k9J</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Надежда</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Исаак</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>Валерьевна</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>933139</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Участок железнодорожных путей</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>Распределитель работ</t>
-        </is>
-      </c>
-      <c r="O103" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>960215351327</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>3042JeUlF7</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Ердан</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Баярстанов</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>Нурланович</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>932350</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>Слесарь по ремонту подвижного состава</t>
-        </is>
-      </c>
-      <c r="O104" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>950924351550</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>x1jS45zG8x</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Максим</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Орловский</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Владимирович</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>932603</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>ремонтники ЦО</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="O105" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>880609350366</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>5bM4dR10R8</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Виктор</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Шугай</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>Иванович</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>932615</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>ремонтники ЦДиСХР</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>670222300223</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>7sjfnB78Tt</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Толеубай</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Батталов</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>Мынбаевич</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>932622</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>Слесарь по ремонту подвижного состава</t>
-        </is>
-      </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>990515350279</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>quJtLlVA9q</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Григорий</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Стяжкин</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>933137</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>ЦЗ осушение карьера</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>610627301361</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>aUVlLJRe6Y</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Юрий</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Островский</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>Антонович</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>933138</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>ремонтники ЦО</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>750615450488</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>M29HjX9OUY</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Куралай</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Беркимбаева</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>Тлектесовна</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>933143</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>Служба управления персоналом</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Отдел кадров</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>Специалист по кадрам</t>
-        </is>
-      </c>
-      <c r="O110" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>771230300914</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>QuBvWK9hTV</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Руслан</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Жакупов</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>Николаевич</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>4908</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>участок по капитальному ремонту</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик</t>
-        </is>
-      </c>
-      <c r="O111" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>670127450339</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>E5Uh2dpLz0</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Надежда</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Климова</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>Николаевна</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>4289</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>Машинист крана (крановщик железнодорожного крана)</t>
-        </is>
-      </c>
-      <c r="O112" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>940822450493</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>NdZT4bdzP3</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Любовь</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Нэйв</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>Исенкельдиновна</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>933140</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Участок подвижного состава</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>Нарядчик</t>
-        </is>
-      </c>
-      <c r="O113" t="inlineStr">
-        <is>
-          <t>служащие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>821122351319</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>zCbi8Cynt4</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Талгат</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Кульмурзин</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>Байгонсович</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>6798</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>сушка руды</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>Сушильщик</t>
-        </is>
-      </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>761209350617</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Nly6HlcXYt</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Жанибек</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Бекетов </t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>Бекетович</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>931669</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик</t>
-        </is>
-      </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>821024350972</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>7weR0Oh9bZ</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Айдос</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Баекенов</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>Амантайевич</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>932331</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>производственная служба</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик (сменный персонал)</t>
-        </is>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>870826350601</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>UrogORpPXb</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Данияр</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Романкулов</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>Серикжанович</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>933142</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>Слесарь по ремонту подвижного состава</t>
-        </is>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>620518300223</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>zkJbYeit0q</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Серженко</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>933141</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Участок добычи</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>Машинист экскаватора (в карьере)</t>
-        </is>
-      </c>
-      <c r="O118" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>871105350426</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>sNEIZhrsun</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Максим</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Петров</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Анатольевич</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>932748</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>участок по ремонту ГПМ</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>980503350271</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>zNeySRstYC</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Николай</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Шарипов</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>Евгеньевич</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>932093</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>участок по ремонту сантехнического оборудования</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик</t>
-        </is>
-      </c>
-      <c r="O120" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>860809450366</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>rj3Ws8jgSg</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Асель</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>Кужахметова</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>Булатовна</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>932482</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Служба по эксплуатации транспорта</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>Оператор движения на автомобильном транспорте</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>820429351177</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>zzEjiJTDv6</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Михаил</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Газукин</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>Александрович</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>2028</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>бригада дежурного персонала ЦОхв</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
-        </is>
-      </c>
-      <c r="O122" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>910705450471</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>fbhPxbMhGj</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Жанат</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Абилева</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>Сабитовна</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>7113</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>Технический отдел</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>Инженер</t>
-        </is>
-      </c>
-      <c r="O123" t="inlineStr">
-        <is>
-          <t>специалисты (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>610829300420</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>tSLLADItWG</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Ивченко</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Викторович</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>46505</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>Пункт технического осмотра</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>Слесарь по ремонту подвижного состава</t>
-        </is>
-      </c>
-      <c r="O124" t="inlineStr">
         <is>
           <t>рабочие (пром)</t>
         </is>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O97"/>
+  <dimension ref="A1:O90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,23 +501,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>001001550700</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>31284bogdan</t>
+          <t>cKBYuqMoyq</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Адиль</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Андриенко</t>
+          <t>Байменов</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -532,62 +532,70 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Superuser, User</t>
+          <t>User</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Байменович</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>931777</t>
+          <t>932714</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>ОИТ</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Участок по эксплуатации электросетей в карьере</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Управа</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bogdan123123</t>
+          <t>581001350787</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1111111111111111</t>
+          <t>dZl3irxAzV</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ермошин</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -595,32 +603,72 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5438</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>970801351178</t>
+          <t>611001401017</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1111111111111111</t>
+          <t>krX1uMnawD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Аношкина</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -628,32 +676,72 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Борисовна</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>28031</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>111111111111</t>
+          <t>940427351150</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1111111111111111</t>
+          <t>EarwHDDRu9</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Поветкин</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -661,32 +749,72 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>931626</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>222222222222</t>
+          <t>770616301254</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2222222222222222</t>
+          <t>CLc1lz0tGu</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Марат</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Кусаинов</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -694,39 +822,67 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Толеуханович</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>932569</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>дизельные автомашины</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>333333333333</t>
+          <t>771110450032</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3333333333333333</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bogdandrienko@gmail.com</t>
-        </is>
-      </c>
+          <t>OVTHbycwCq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Фамилия</t>
+          <t>Алмагуль</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Имя</t>
+          <t xml:space="preserve">Мусинова </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -736,63 +892,75 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Отчество</t>
+          <t xml:space="preserve">Гайсаевна </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>931777</t>
+          <t>933085</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Упр</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>ОИТ</t>
+          <t>Служба управления делами</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Сектор ПО</t>
+          <t>Стадион "Горняк"</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Программист</t>
+          <t>Рабочий по комплексному обслуживанию</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>ИТР</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>444444444444</t>
+          <t>611003450019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4444444444444444</t>
+          <t>trjwaX5ZFV</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Хлюстова</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -800,32 +968,72 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Степановна</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>7122</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>555555555555</t>
+          <t>700120400540</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5555555555555555</t>
+          <t>goKjIj9jM0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Наталья</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Мубаракшина</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -833,40 +1041,68 @@
           <t>false</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>28475</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Технический отдел</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Инженер-технолог</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>001001550700</t>
+          <t>810728300522</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PUDqKGvNe6</t>
+          <t>U0fTZIxKWL</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Адиль</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Байменов</t>
+          <t>Новиков</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -881,65 +1117,65 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Байменович</t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>932714</t>
+          <t>931082</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Участок по эксплуатации электросетей в карьере</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
+          <t>Механик</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>581001350787</t>
+          <t>700709350413</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8KRSgjVe60</t>
+          <t>cxBtqUEeZq</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Николай</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ермошин</t>
+          <t>Оконешников</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -954,12 +1190,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Иванович</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>932066</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -969,17 +1205,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -991,28 +1227,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>611001401017</t>
+          <t>971118351054</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Xzw7wL9eLs</t>
+          <t>DvFg1bvrpq</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Аношкина</t>
+          <t>Губенко</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1027,12 +1263,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Борисовна</t>
+          <t>Валерьевич</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>28031</t>
+          <t>933084</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1042,17 +1278,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>участок вулканизации лент</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1064,28 +1300,28 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>940427351150</t>
+          <t>970522350917</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q9T3fPniln</t>
+          <t>byHPIKoarj</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t xml:space="preserve">Вячеслав </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Поветкин</t>
+          <t>Медюхо</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1100,32 +1336,28 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t xml:space="preserve">Васильевич </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>931626</t>
+          <t>933086</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1137,28 +1369,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>770616301254</t>
+          <t>640719300130</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>eCnHNH4x3p</t>
+          <t>ET9N376Mua</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Марат</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Кусаинов</t>
+          <t>Якунин</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1173,65 +1405,61 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Толеуханович</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>932569</t>
+          <t>11695</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>дизельные автомашины</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
+          <t>Мастер электромеханик</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>771110450032</t>
+          <t>921203350629</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>6ftUiHuJ11</t>
+          <t>uX6caVvHEU</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Алмагуль</t>
+          <t>Антон</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мусинова </t>
+          <t>Кислицын</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1246,12 +1474,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гайсаевна </t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>933085</t>
+          <t>931296</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1261,45 +1489,45 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
+          <t>Служба автоматизации</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Стадион "Горняк"</t>
+          <t>Экспериментально-конструкторская группа</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Рабочий по комплексному обслуживанию</t>
+          <t>Инженер по автоматизации производства I категории</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>611003450019</t>
+          <t>960417351318</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>54uutT0yAN</t>
+          <t>qwpLvMhqzT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Галина</t>
+          <t>Мейрам</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Хлюстова</t>
+          <t>Шегреев</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1319,60 +1547,60 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Степановна</t>
+          <t xml:space="preserve">Рахимбаевич </t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>7122</t>
+          <t>933058</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
+          <t>Цех технологического транспорта</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Стадион "Горняк"</t>
+          <t>ремонтный персонал</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Рабочий по комплексному обслуживанию</t>
+          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>700120400540</t>
+          <t>940806350658</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9QSdezfv82</t>
+          <t>SZ6AWrYYaJ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Адиль</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Мубаракшина</t>
+          <t>Жаримбетов</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1392,61 +1620,65 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Николаевна</t>
+          <t>Шуакбаевич</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>28475</t>
+          <t>933087</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Технический отдел</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr"/>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Инженер-технолог</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>810728300522</t>
+          <t>891201351122</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LMBn32ECfQ</t>
+          <t>eOdaNg6JbO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Арслан</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Новиков</t>
+          <t>Тлекешов</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1461,12 +1693,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Вячеславович</t>
+          <t>Жагпарович</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>931082</t>
+          <t>7321</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1476,45 +1708,45 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>ремонт и содержание ЦДиСХР</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Механик</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>700709350413</t>
+          <t>901119351384</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>K3RdjOaWAv</t>
+          <t>ccLJlbB1Ud</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t>Артур</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Оконешников</t>
+          <t>Штро</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1534,32 +1766,32 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Иванович</t>
+          <t>Яковлевич</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>932066</t>
+          <t>931949</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>производственно-техническая служба ЦДиСХР</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1571,23 +1803,23 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>971118351054</t>
+          <t>010424650305</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BjUsghjkF3</t>
+          <t>qTXQGqIR0A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Евгения</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Губенко</t>
+          <t xml:space="preserve">Колеснюк </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1607,32 +1839,28 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Валерьевич</t>
+          <t xml:space="preserve">Сергеевна </t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>933084</t>
+          <t>933088</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>участок вулканизации лент</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t xml:space="preserve">Оператор котельной </t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -1644,23 +1872,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>970522350917</t>
+          <t>960920450261</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IcE3scyuCZ</t>
+          <t>EU6FZwtfeT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вячеслав </t>
+          <t>Жания</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Медюхо</t>
+          <t>Сыздыкова</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1680,61 +1908,65 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Васильевич </t>
+          <t>Исмагуловна</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>933086</t>
+          <t>933089</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr"/>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>Экспериментально-конструкторская группа</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+          <t>Инженер по автоматизации</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>640719300130</t>
+          <t>891211400505</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WnsyCuUbng</t>
+          <t>lZQfbuZ1N5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Анастасия</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Якунин</t>
+          <t>Лоц</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1749,61 +1981,57 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Анатольевна</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11695</t>
+          <t>931679</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Участок тепловодоснабжения</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Мастер электромеханик</t>
+          <t>Уборщик помещений</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>921203350629</t>
+          <t>850325350208</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6aoncrUDjF</t>
+          <t>eIKKaQHQb0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Вячеслав</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Кислицын</t>
+          <t>Кисель</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1818,65 +2046,61 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>931296</t>
+          <t>932607</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Служба автоматизации</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Экспериментально-конструкторская группа</t>
-        </is>
-      </c>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Инженер по автоматизации производства I категории</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>960417351318</t>
+          <t>960915350525</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3MCdgZ7Evp</t>
+          <t>oYuU3DkR32</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Мейрам</t>
+          <t>Мирас</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Шегреев</t>
+          <t>Бурамбаев</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1891,32 +2115,28 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Рахимбаевич </t>
+          <t>Серимжанович</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>933058</t>
+          <t>932669</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>ремонтный персонал</t>
-        </is>
-      </c>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1928,23 +2148,23 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>940806350658</t>
+          <t>691116350140</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>l9lUFNPPbT</t>
+          <t>De8CY179n3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Адиль</t>
+          <t>Ермек</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Жаримбетов</t>
+          <t>Альмухамедов</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1964,60 +2184,60 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Шуакбаевич</t>
+          <t xml:space="preserve">Нуртазаевич </t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>933087</t>
+          <t>933091</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Служба управления делами</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Участок отвалообразования</t>
+          <t>Бассейн "Алма-Ата"</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+          <t>Сторож</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>рабочие (непром)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>891201351122</t>
+          <t>780715301086</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>skz7Ap3cCB</t>
+          <t>t82kuSNVPl</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Арслан</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Тлекешов</t>
+          <t>Ерёменко</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2037,12 +2257,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Жагпарович</t>
+          <t>Юрьевич</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>7321</t>
+          <t>933090</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2052,45 +2272,41 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>ремонт и содержание ЦДиСХР</t>
-        </is>
-      </c>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Ведущий экономист по планированию и анализу</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>901119351384</t>
+          <t>640325402479</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cUlHzqSOQp</t>
+          <t>osYGjJcczj</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Артур</t>
+          <t>Рукиям</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Штро</t>
+          <t>Курбанова</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2110,32 +2326,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Яковлевич</t>
+          <t>Розиевна</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>931949</t>
+          <t>000007897</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>производственно-техническая служба ЦДиСХР</t>
-        </is>
-      </c>
+          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
+          <t>Уборщик служебных помещений</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2147,23 +2355,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>010424650305</t>
+          <t>810224350390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R3Bi78inve</t>
+          <t>AJ7CyGDtr7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Евгения</t>
+          <t>Денис</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колеснюк </t>
+          <t>Пластовец</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2183,56 +2391,56 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергеевна </t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>933088</t>
+          <t>10908</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>Отдел главного механика</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оператор котельной </t>
+          <t>Ведущий инженер по ТОиР</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>960920450261</t>
+          <t>940927350507</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tn6Nulv400</t>
+          <t>huiIcfOYjl</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Жания</t>
+          <t>Кайырхан</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Сыздыкова</t>
+          <t>Мынжасаров</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2252,65 +2460,65 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Исмагуловна</t>
+          <t>Кайратович</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>933089</t>
+          <t>931691</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Служба автоматизации</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Экспериментально-конструкторская группа</t>
+          <t>Участок добычи</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Инженер по автоматизации</t>
+          <t>Помощник машиниста экскаватора (в карьере)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>891211400505</t>
+          <t>930219450720</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4Y7SnV9Q9Z</t>
+          <t>zwAaz7dRz1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Анастасия</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Лоц</t>
+          <t>Цыгулева</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2325,52 +2533,56 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Венедиктовна</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>931679</t>
+          <t>932067</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Отдел по экономике и развитию</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Уборщик помещений</t>
+          <t>Экономист по труду</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>850325350208</t>
+          <t>720806350335</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>XNgQFkq3eW</t>
+          <t>A54Ga6GzGA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Вячеслав</t>
+          <t>Игорь</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Кисель</t>
+          <t>Грядовкин</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2390,12 +2602,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Алексеевич</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>932607</t>
+          <t>933092</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2405,13 +2617,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr"/>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Токарь</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2423,28 +2639,28 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>960915350525</t>
+          <t>790527402447</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HuS5gNBspN</t>
+          <t>45qOQ0g3aL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Мирас</t>
+          <t>Ксения</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Бурамбаев</t>
+          <t>Лосева</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2459,28 +2675,32 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Серимжанович</t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>932669</t>
+          <t>28057</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr"/>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Оператор пульта управления</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2492,28 +2712,28 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>691116350140</t>
+          <t>820311450639</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>sKqFvv3XZb</t>
+          <t>IrOupOlSLD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ермек</t>
+          <t>Анна</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Альмухамедов</t>
+          <t>Ивченко</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2528,60 +2748,60 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Нуртазаевич </t>
+          <t>Павловна</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>933091</t>
+          <t>932230</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Бассейн "Алма-Ата"</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Сторож</t>
+          <t>Машинист крана (крановщик мостового крана)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>780715301086</t>
+          <t>780223403679</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>npD8kBABVg</t>
+          <t>NCtrlvz7UE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t xml:space="preserve">Асем </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ерёменко</t>
+          <t>Бралина</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2601,28 +2821,28 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t xml:space="preserve">Муратовна </t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>933090</t>
+          <t>933093</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Отдел по экономике и развитию</t>
+          <t xml:space="preserve">Группа обслуживания                      </t>
         </is>
       </c>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Ведущий экономист по планированию и анализу</t>
+          <t>Инженер по пожарной безопасности</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2634,28 +2854,28 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>640325402479</t>
+          <t>810709400486</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sCeGNt6CNa</t>
+          <t>3fb3yEAR1k</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Рукиям</t>
+          <t xml:space="preserve">Кайырхан </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Курбанова</t>
+          <t>Машаев</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2670,24 +2890,32 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Розиевна</t>
+          <t>Бахчанович</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>000007897</t>
+          <t>931848</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Буровзрывной цех</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>ЦЗ автотранспорт зарядный</t>
+        </is>
+      </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Уборщик служебных помещений</t>
+          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2699,23 +2927,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>810224350390</t>
+          <t>820116451171</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2hUgDfBEZO</t>
+          <t>35ypKlUJNp</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Карлагаш</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Пластовец</t>
+          <t xml:space="preserve">Утарбаева </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2735,56 +2963,60 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>КАРЖАУБАЕВНА</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>10908</t>
+          <t>933094</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Отдел главного механика</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Ведущий инженер по ТОиР</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>940927350507</t>
+          <t>741007401841</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3RZCSE4Q3Q</t>
+          <t>nOxhvoSehg</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Кайырхан</t>
+          <t xml:space="preserve">Юрий </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Мынжасаров</t>
+          <t xml:space="preserve">Елистратов </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2804,32 +3036,32 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Кайратович</t>
+          <t xml:space="preserve">Валерьевич </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>931691</t>
+          <t>933095</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Участок добычи</t>
+          <t>участок по ремонту сантехнического оборудования</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (в карьере)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -2841,28 +3073,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>930219450720</t>
+          <t>670705300982</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BE0Vy5TGvS</t>
+          <t>1eecy3nPMZ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Нуржан</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Цыгулева</t>
+          <t>Аманов</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2877,61 +3109,65 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Венедиктовна</t>
+          <t>Жаксылыкович</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>932067</t>
+          <t>932727</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Отдел по экономике и развитию</t>
+          <t>дизельные автомашины</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Экономист по труду</t>
+          <t>Водитель автомобиля (Газ мусоровоз)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>720806350335</t>
+          <t>611022350313</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>aRJh2ZOzed</t>
+          <t>kA8kMSsdUb</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Игорь</t>
+          <t>Юрий</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Грядовкин</t>
+          <t>Шишкин</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2946,32 +3182,32 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Алексеевич</t>
+          <t>Анатольевич</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>933092</t>
+          <t>932888</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Токарь</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -2983,28 +3219,28 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>790527402447</t>
+          <t>910228450313</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AOKSGu8vBC</t>
+          <t>V3T4clDZXZ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ксения</t>
+          <t xml:space="preserve">Мадина </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Лосева</t>
+          <t xml:space="preserve">Бегалинова </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3019,12 +3255,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Павловна</t>
+          <t xml:space="preserve">Кайратовна </t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>28057</t>
+          <t>933097</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3039,12 +3275,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Оператор пульта управления</t>
+          <t xml:space="preserve">Машинист РУМ </t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3056,28 +3292,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>820311450639</t>
+          <t>740421300746</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>tHUT3V9Xhe</t>
+          <t>qgacbwZGiz</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t xml:space="preserve">Серик </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ивченко</t>
+          <t xml:space="preserve">Балыкбаев </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3092,32 +3328,32 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Павловна</t>
+          <t xml:space="preserve">Мухамедгалиевич </t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>932230</t>
+          <t>933098</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Машинист крана (крановщик мостового крана)</t>
+          <t>Тракторист (Т-150 в карьере)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3129,28 +3365,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>780223403679</t>
+          <t>581017300738</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lhCWPho56C</t>
+          <t>ICjKDY3UAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Асем </t>
+          <t>Сексен</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Бралина</t>
+          <t>Смаилов</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3165,56 +3401,60 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Муратовна </t>
+          <t>Сарсенович</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>933093</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Группа обслуживания                      </t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr"/>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>механизмы</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Инженер по пожарной безопасности</t>
+          <t>Тракторист (Т-150 в карьере)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>810709400486</t>
+          <t>960323351109</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>r1MJYr1PK1</t>
+          <t>iuhDuf33Mt</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кайырхан </t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Машаев</t>
+          <t>Коробков</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3234,12 +3474,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Бахчанович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>931848</t>
+          <t>932146</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3249,17 +3489,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Буровзрывной цех</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>ЦЗ автотранспорт зарядный</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3271,23 +3511,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>820116451171</t>
+          <t>930105350457</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5MhRjp1FbH</t>
+          <t>TMxU0JMMHX</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Карлагаш</t>
+          <t>Константин</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Утарбаева </t>
+          <t>Плахотников</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3307,32 +3547,32 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>КАРЖАУБАЕВНА</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>933094</t>
+          <t>932202</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик (в карьере)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3344,23 +3584,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>741007401841</t>
+          <t>751109300040</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>tvlJjyNj3n</t>
+          <t>3nxnSIsb1S</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрий </t>
+          <t>Салимжан</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Елистратов </t>
+          <t>Куантаев</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3380,32 +3620,32 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Валерьевич </t>
+          <t>Ердаулетович</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>933095</t>
+          <t>932870</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>участок по ремонту сантехнического оборудования</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3417,28 +3657,28 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>670705300982</t>
+          <t>840724450648</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FdbvCGUKNO</t>
+          <t>PvIgcw2r2v</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Нуржан</t>
+          <t xml:space="preserve">Надежда </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Аманов</t>
+          <t xml:space="preserve">Щербакова </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3453,32 +3693,32 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Жаксылыкович</t>
+          <t xml:space="preserve">Сергеевна </t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>932727</t>
+          <t>933099</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>дизельные автомашины</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Газ мусоровоз)</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3490,28 +3730,28 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>611022350313</t>
+          <t>990430450293</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0RtWiZ1tjP</t>
+          <t>NUB2nU1HyK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Юрий</t>
+          <t>Ольга</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Шишкин</t>
+          <t>Белоцерковская</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3526,60 +3766,56 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Дмитриевна</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>932888</t>
+          <t>933100</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>Отдел стандартизации и метрологии</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Инженер по метрологии II категории</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>910228450313</t>
+          <t>921111450635</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2ReCUl7CLG</t>
+          <t>ivDcsart30</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мадина </t>
+          <t xml:space="preserve">Кристина </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бегалинова </t>
+          <t xml:space="preserve">Романкулова </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3599,12 +3835,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кайратовна </t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>933097</t>
+          <t>933101</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3619,12 +3855,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Машинист РУМ </t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3636,23 +3872,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>740421300746</t>
+          <t>950528450546</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>jbgKhysAI9</t>
+          <t>hOkxuPQGyo</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Серик </t>
+          <t xml:space="preserve">Дарья </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Балыкбаев </t>
+          <t xml:space="preserve">Казимирова </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3672,32 +3908,28 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мухамедгалиевич </t>
+          <t xml:space="preserve">Андреевна </t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>933098</t>
+          <t>933102</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>Цех вспомогательного транспорта</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>механизмы</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Тракторист (Т-150 в карьере)</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3709,28 +3941,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>581017300738</t>
+          <t>930722451179</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>YUNraWt79p</t>
+          <t>3LaxKk2uGz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Сексен</t>
+          <t>Нургуль</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Смаилов</t>
+          <t xml:space="preserve">Укасова </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3745,32 +3977,32 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Сарсенович</t>
+          <t>Серимжановна</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>933096</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>механизмы</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Тракторист (Т-150 в карьере)</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -3782,28 +4014,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>960323351109</t>
+          <t>960508350423</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>wwlwT2waFo</t>
+          <t>ALH2kj97Xw</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t xml:space="preserve">Максим </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Коробков</t>
+          <t>Данилов</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3823,7 +4055,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>932146</t>
+          <t>933105</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3833,17 +4065,17 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -3855,23 +4087,23 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>930105350457</t>
+          <t>701103450359</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Kj3aSGqzQM</t>
+          <t>WR4k0Xjeqb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Константин</t>
+          <t>Татьяна</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Плахотников</t>
+          <t xml:space="preserve">Гуляева </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3891,32 +4123,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Васильевна</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>932202</t>
+          <t>933103</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>ЦЗ осушение карьера</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Электрогазосварщик (в карьере)</t>
+          <t>Оператор АЗС</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3928,23 +4152,23 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>751109300040</t>
+          <t>690101352846</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>liOGoNwUFi</t>
+          <t>dhfI6LFpQ0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Салимжан</t>
+          <t xml:space="preserve">Александр </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Куантаев</t>
+          <t>Марухненко</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3964,32 +4188,32 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Ердаулетович</t>
+          <t xml:space="preserve">Александрович </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>932870</t>
+          <t>933104</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех технологического транспорта</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>бульдозерный участок</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Машинист бульдозера (в карьере)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4001,28 +4225,28 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>840724450648</t>
+          <t>910121351042</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>K9OlM6abvC</t>
+          <t>WkxrtQo16E</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надежда </t>
+          <t>Самат</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Щербакова </t>
+          <t>Жупанов</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4037,65 +4261,61 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергеевна </t>
+          <t>Булатович</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>933099</t>
+          <t>931484</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Мастер подстанций обогатит.комплекса</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>руководители (пром)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>990430450293</t>
+          <t>811121400125</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>xx9Rp0ODpK</t>
+          <t>6V7aCKT81s</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Марина</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Белоцерковская</t>
+          <t>Жарова</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4110,56 +4330,60 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Дмитриевна</t>
+          <t>Рагимовна</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>933100</t>
+          <t>933106</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Отдел стандартизации и метрологии</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Инженер по метрологии II категории</t>
+          <t>Нарядчик</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>служащие (пром)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>921111450635</t>
+          <t>940611351339</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RPw8j5ZiCu</t>
+          <t>4wWJWIxhOq</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кристина </t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Романкулова </t>
+          <t>Спорышев</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4179,32 +4403,32 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>933101</t>
+          <t>933107</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4216,28 +4440,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>950528450546</t>
+          <t>581021301321</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HXT1wr8M4P</t>
+          <t>CXrDQgMpZS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарья </t>
+          <t>Василий</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Казимирова </t>
+          <t>Арсентьев</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4252,28 +4476,32 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Андреевна </t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>933102</t>
+          <t>23100</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4285,28 +4513,28 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>930722451179</t>
+          <t>710831300214</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>n0gZlvVK3W</t>
+          <t>EriSDWh4NJ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Нургуль</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Укасова </t>
+          <t>Воскресенский</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4321,32 +4549,32 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Серимжановна</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>933096</t>
+          <t>932599</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4358,28 +4586,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>960508350423</t>
+          <t>720204450120</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KRMjGbFUP8</t>
+          <t>4vxwFwRQiq</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Максим </t>
+          <t>Мадина</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Данилов</t>
+          <t>Байтышева</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4394,32 +4622,28 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Тынышпаевна</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>933105</t>
+          <t>5140</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4431,23 +4655,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>701103450359</t>
+          <t>801029301016</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PSlBwMxK7F</t>
+          <t>hh2Boe5shG</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Анатолий</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гуляева </t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4467,24 +4691,32 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Васильевна</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>933103</t>
+          <t>932440</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Участок СЦБ</t>
+        </is>
+      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Оператор АЗС</t>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4496,23 +4728,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>690101352846</t>
+          <t>760916350241</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NPBxrL5Qqw</t>
+          <t>iveD00BMbr</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t xml:space="preserve">Сергей </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Марухненко</t>
+          <t xml:space="preserve">Прокофьев </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4532,32 +4764,32 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александрович </t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>933104</t>
+          <t>933003</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>бульдозерный участок</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Машинист бульдозера (в карьере)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4569,28 +4801,28 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>910121351042</t>
+          <t>780103300328</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>VC4Cl4oyb9</t>
+          <t>u7Wba83fko</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Самат</t>
+          <t xml:space="preserve">Алексей </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Жупанов</t>
+          <t>Переверзин</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4605,61 +4837,65 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Булатович</t>
+          <t>Витальевич</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>931484</t>
+          <t>933004</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Мастер подстанций обогатит.комплекса</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>811121400125</t>
+          <t>810809350688</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>lX5zoieXSG</t>
+          <t>5eRvcBUBvB</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Марина</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Жарова</t>
+          <t xml:space="preserve">Арсентьев </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4674,60 +4910,60 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Рагимовна</t>
+          <t>Васильевич</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>933106</t>
+          <t>933108</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Нарядчик</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>служащие (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>940611351339</t>
+          <t>010319551608</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2AbTqf9lNL</t>
+          <t>eYKPKwhvJJ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Турар</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Спорышев</t>
+          <t>Ахбердиев</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4747,32 +4983,24 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Сабитбекулы</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>933107</t>
+          <t>933109</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Пункт технического осмотра</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4784,28 +5012,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>581021301321</t>
+          <t>750430300390</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EqvywffwrW</t>
+          <t>tE7kg79q53</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Василий</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Арсентьев</t>
+          <t>Свиридов</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4820,12 +5048,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Валерьевич</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>933110</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4857,28 +5085,28 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>710831300214</t>
+          <t>930330350798</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>eG5lOnJhBc</t>
+          <t>l6QP2eyIjK</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Канат</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Воскресенский</t>
+          <t>Жакупов</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4893,12 +5121,12 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Ермекович</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>932599</t>
+          <t>930407</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4908,17 +5136,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -4930,28 +5158,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>720204450120</t>
+          <t>900628350188</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5eRDj8FuqC</t>
+          <t>QFDkbk6CnR</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Мадина</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Байтышева</t>
+          <t>Прокаев</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4966,28 +5194,32 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Тынышпаевна</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4999,23 +5231,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>801029301016</t>
+          <t>860401350758</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>g02gqFj4Mi</t>
+          <t>85Du4nz7i4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Анатолий</t>
+          <t>Аулехан</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Мустафин</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5035,32 +5267,32 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Оразбекович</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>932440</t>
+          <t>933111</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Участок СЦБ</t>
+          <t>Участок по производству щебня</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5072,23 +5304,23 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>760916350241</t>
+          <t>930108350334</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DZeebnieKv</t>
+          <t>vHyU2BTX31</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергей </t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прокофьев </t>
+          <t>Лосев</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5108,32 +5340,32 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>933003</t>
+          <t>933112</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5145,23 +5377,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>780103300328</t>
+          <t>620919300134</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>dpKrQrkakD</t>
+          <t>AQKr9MXBZe</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Алексей </t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Переверзин</t>
+          <t>Моисеенко</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5181,12 +5413,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Витальевич</t>
+          <t>Валентинович</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>933004</t>
+          <t>14158</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5196,17 +5428,17 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>ЦЗ взрывной</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Горнорабочий</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5218,28 +5450,28 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>810809350688</t>
+          <t>830217350376</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6U2i5hwMTa</t>
+          <t>0MX3DASk2P</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Арсентьев </t>
+          <t>Матковский</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5254,32 +5486,32 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Васильевич</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>933108</t>
+          <t>931551</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Участок железнодорожных путей</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5291,28 +5523,28 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>010319551608</t>
+          <t>890509450896</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>lfQXBEv7GV</t>
+          <t>jNQLEqSJiz</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Турар</t>
+          <t>Анастасия</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ахбердиев</t>
+          <t>Ишбердина</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5327,52 +5559,56 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Сабитбекулы</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>933109</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Грузчик</t>
+          <t>Инженер по метрологии II категории</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>750430300390</t>
+          <t>870323350386</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>8dhR5oypkx</t>
+          <t>xyfTn7V7td</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Свиридов</t>
+          <t>Банцевич</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5392,65 +5628,61 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Валерьевич</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>933110</t>
+          <t>930898</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Производственный отдел</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Горный  диспетчер</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>930330350798</t>
+          <t>581027350025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bslFg6nQvW</t>
+          <t>XWSn27S4Vr</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Канат</t>
+          <t>Тагир</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Жакупов</t>
+          <t>Мустакимов</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5465,32 +5697,32 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Ермекович</t>
+          <t>Жумабаевич</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>930407</t>
+          <t>21185</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>участок по ремонту сантехнического оборудования</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5502,28 +5734,28 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>900628350188</t>
+          <t>910310450434</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>c4BnJe5Fvb</t>
+          <t>U4P2FHJEaY</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Айнура</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Прокаев</t>
+          <t>Исмагулова</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5538,60 +5770,60 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Сериковна</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>933007</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба управления персоналом</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>Отдел кадров</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Специалист по кадрам</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>860401350758</t>
+          <t>910702350706</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cuy437CGFa</t>
+          <t>LLoiLNLEQl</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Аулехан</t>
+          <t xml:space="preserve">Темиржан </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Мустафин</t>
+          <t xml:space="preserve">Ержанов </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5611,32 +5843,28 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Оразбекович</t>
+          <t xml:space="preserve">Сайлаубаевич </t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>933111</t>
+          <t>933115</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Участок по производству щебня</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Дробильщик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5648,23 +5876,23 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>930108350334</t>
+          <t>760226301420</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>9zZhL3ufC8</t>
+          <t>VJd8QfIET4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t xml:space="preserve">Александр </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Лосев</t>
+          <t>Штенгауэр</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5684,32 +5912,32 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Кондратьевич</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>933112</t>
+          <t>933116</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>ЦЗ осушение карьера</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5721,23 +5949,23 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>620919300134</t>
+          <t>890403450502</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5ZG5cwF5Ye</t>
+          <t>ZY9ExQFOBt</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Елена</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Моисеенко</t>
+          <t>Плотникова</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5757,32 +5985,32 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Валентинович</t>
+          <t>Михайловна</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>14158</t>
+          <t>6717</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Буровзрывной цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>ЦЗ взрывной</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Горнорабочий</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -5794,23 +6022,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>830217350376</t>
+          <t>940128350375</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ep2j6NE22o</t>
+          <t>Bd0Uab9ahw</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Темирлан</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Матковский</t>
+          <t>Катарбаев</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5830,32 +6058,32 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Сандибекович</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>931551</t>
+          <t>930839</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Участок железнодорожных путей</t>
+          <t>участок по ремонту ГПМ</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
@@ -5867,23 +6095,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>890509450896</t>
+          <t>581020301495</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ZQIaJoZktG</t>
+          <t>pguYC7Jz3j</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Анастасия</t>
+          <t>Мурат</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Ишбердина</t>
+          <t>Досмагамбетов</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5901,58 +6129,54 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>Александровна</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Отдел стандартизации и метрологии</t>
-        </is>
-      </c>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Инженер по метрологии II категории</t>
+          <t>Аккумуляторщик</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>870323350386</t>
+          <t>690329300833</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vigLAtCCBV</t>
+          <t>WM8vWEvcy2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Серик</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Банцевич</t>
+          <t>Кабылбеков</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -5972,12 +6196,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Сейлханович</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>930898</t>
+          <t>932215</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5985,48 +6209,52 @@
           <t>Горно-транспортный комплекс</t>
         </is>
       </c>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Производственный отдел</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Горный  диспетчер</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>581027350025</t>
+          <t>991003350387</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>oATuXE6fyO</t>
+          <t>dnRXu4OfNd</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Тагир</t>
+          <t>Жандос</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Мустакимов</t>
+          <t>Аблякимов</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6041,32 +6269,28 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Жумабаевич</t>
+          <t>Мурзабаевич</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>21185</t>
+          <t>932265</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>участок по ремонту сантехнического оборудования</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6078,28 +6302,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>910310450434</t>
+          <t>960517350155</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>OnD8idAfLK</t>
+          <t>u6fAp3KcNC</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Айнура</t>
+          <t>Айбек</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Исмагулова</t>
+          <t>Дуйсебаев</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6114,60 +6338,60 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Сериковна</t>
+          <t>Орынбасарович</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>933007</t>
+          <t>932417</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Служба управления персоналом</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Отдел кадров</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Специалист по кадрам</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>910702350706</t>
+          <t>971128350195</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>lF44reFaLw</t>
+          <t>AibIroPDdx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Темиржан </t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ержанов </t>
+          <t>Зайнутдинов</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6187,28 +6411,32 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сайлаубаевич </t>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>933115</t>
+          <t>932628</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6220,23 +6448,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>760226301420</t>
+          <t>991020450297</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>EJ7Ld7HGAT</t>
+          <t>24FIMIeEsX</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Штенгауэр</t>
+          <t>Фадеев</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -6256,12 +6484,12 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Кондратьевич</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>933116</t>
+          <t>932670</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -6276,12 +6504,12 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Участок отвалообразования</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6293,23 +6521,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>890403450502</t>
+          <t>790225300373</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rWTrMsahy7</t>
+          <t>uogVRfC6t0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Плотникова</t>
+          <t>Ан</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6329,32 +6557,32 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Михайловна</t>
+          <t>Михайлович</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>6717</t>
+          <t>933117</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6366,28 +6594,28 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>940128350375</t>
+          <t>950923351466</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>h0SL2icOiP</t>
+          <t>lZcp3bBvPI</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Темирлан</t>
+          <t>Асхат</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Катарбаев</t>
+          <t>Курмангалиев</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6402,12 +6630,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Сандибекович</t>
+          <t>Куанышевич</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>930839</t>
+          <t>932934</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6422,12 +6650,12 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>участок по ремонту ГПМ</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6439,28 +6667,28 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>581020301495</t>
+          <t>990902350579</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tDP8cWJ4CL</t>
+          <t>ccTjcTkyy8</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Мурат</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Досмагамбетов</t>
+          <t>Чагин</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6473,26 +6701,30 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Рушанович</t>
+        </is>
+      </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>933016</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>Цех по ремонту машин</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr"/>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Аккумуляторщик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6504,23 +6736,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>690329300833</t>
+          <t>930911350439</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7haSB9TR4w</t>
+          <t>N2NNBnyXTv</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Серик</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Кабылбеков</t>
+          <t xml:space="preserve">Стяжкин </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6540,32 +6772,28 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Сейлханович</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>932215</t>
+          <t>933018</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6577,23 +6805,23 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>991003350387</t>
+          <t>970801351179</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>FYY3R2oZ2V</t>
+          <t>DWMdvKg5ru</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Жандос</t>
+          <t>Богдан</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Аблякимов</t>
+          <t>Андриенко</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6613,536 +6841,37 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Мурзабаевич</t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>932265</t>
+          <t>931777</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr"/>
+          <t>Управа</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>ОИТ</t>
+        </is>
+      </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Управа</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>960517350155</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>EnxrsbeW49</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Айбек</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Дуйсебаев</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>Орынбасарович</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>932417</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>ремонтники ЦО</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>971128350195</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>oH1RCFgFVe</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>Вадим</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Зайнутдинов</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>Евгеньевич</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>932628</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>ремонтники ЦО</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>991020450297</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>fCCpZTYZCe</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>Владимир</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Фадеев</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>Андреевич</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>932670</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>Участок отвалообразования</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>790225300373</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>pEQZMSvB9k</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>Михаил</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Ан</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
-        <is>
-          <t>Михайлович</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>933117</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Железнодорожный цех</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Участок подвижного состава</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>950923351466</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>VfHSv97rbI</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Асхат</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Курмангалиев</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>Куанышевич</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>932934</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>ремонтники ЦО</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Электрогазосварщик</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>990902350579</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>9ybnp54TFy</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Александр</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Чагин</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Рушанович</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>933016</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>Участок группы подстанций и электросетей</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>930911350439</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>kCybTkEotc</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Иван</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Стяжкин </t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>false</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>Сергеевич</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>933018</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>Участок группы подстанций и электросетей</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>рабочие (пром)</t>
+          <t>Управа</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/export_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O90"/>
+  <dimension ref="A1:O124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,28 +501,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>001001550700</t>
+          <t>710831300214</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cKBYuqMoyq</t>
+          <t>rPQn0GF3DM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Адиль</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Байменов</t>
+          <t>Воскресенский</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Байменович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>932714</t>
+          <t>932599</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -557,12 +557,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Участок по эксплуатации электросетей в карьере</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Электромонтер-линейщик по монтажу воздушных линий высокого напряжения и контактной сети (в карьере)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -574,23 +574,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>581001350787</t>
+          <t>811121400125</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dZl3irxAzV</t>
+          <t>CBik9CweoL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Николай</t>
+          <t>Марина</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ермошин</t>
+          <t>Жарова</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Рагимовна</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5438</t>
+          <t>933106</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -625,45 +625,45 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Нарядчик</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>служащие (пром)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>611001401017</t>
+          <t>720204450120</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>krX1uMnawD</t>
+          <t>frQTHM1TPR</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ирина</t>
+          <t>Мадина</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Аношкина</t>
+          <t>Байтышева</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -683,32 +683,28 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Борисовна</t>
+          <t>Тынышпаевна</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>28031</t>
+          <t>5140</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -720,28 +716,28 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>940427351150</t>
+          <t>801029301016</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EarwHDDRu9</t>
+          <t>S1VEMkavpC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Анатолий</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Поветкин</t>
+          <t>Петров</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -756,32 +752,32 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Александрович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>931626</t>
+          <t>932440</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>Участок СЦБ</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -793,28 +789,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>770616301254</t>
+          <t>760916350241</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLc1lz0tGu</t>
+          <t>8HbFz8FPfO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Марат</t>
+          <t xml:space="preserve">Сергей </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Кусаинов</t>
+          <t xml:space="preserve">Прокофьев </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -829,32 +825,32 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Толеуханович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>932569</t>
+          <t>933003</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>дизельные автомашины</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Камаз вахтовка в карьере сменный)</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -866,23 +862,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>771110450032</t>
+          <t>780103300328</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OVTHbycwCq</t>
+          <t>Pw5CNCQxSp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Алмагуль</t>
+          <t xml:space="preserve">Алексей </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мусинова </t>
+          <t>Переверзин</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -902,65 +898,65 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гайсаевна </t>
+          <t>Витальевич</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>933085</t>
+          <t>933004</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Стадион "Горняк"</t>
+          <t>Пункт технического осмотра</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Рабочий по комплексному обслуживанию</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>611003450019</t>
+          <t>810809350688</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trjwaX5ZFV</t>
+          <t>eCqZsQbgwb</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Галина</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Хлюстова</t>
+          <t xml:space="preserve">Арсентьев </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -975,60 +971,60 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Степановна</t>
+          <t>Васильевич</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7122</t>
+          <t>933108</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Стадион "Горняк"</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Рабочий по комплексному обслуживанию</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>700120400540</t>
+          <t>010319551608</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>goKjIj9jM0</t>
+          <t>lfgLIRiHRS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Наталья</t>
+          <t>Турар</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Мубаракшина</t>
+          <t>Ахбердиев</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1048,61 +1044,57 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Николаевна</t>
+          <t>Сабитбекулы</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>28475</t>
+          <t>933109</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Технический отдел</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Инженер-технолог</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>810728300522</t>
+          <t>750430300390</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>U0fTZIxKWL</t>
+          <t>j915H1UXSc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Новиков</t>
+          <t>Свиридов</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1117,12 +1109,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Вячеславович</t>
+          <t>Валерьевич</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>931082</t>
+          <t>933110</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1137,40 +1129,40 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Механик</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>700709350413</t>
+          <t>930330350798</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cxBtqUEeZq</t>
+          <t>fMO9cd3Oq9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Сергей</t>
+          <t>Канат</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Оконешников</t>
+          <t>Жакупов</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1190,12 +1182,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Иванович</t>
+          <t>Ермекович</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>932066</t>
+          <t>930407</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1210,12 +1202,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1227,23 +1219,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>971118351054</t>
+          <t>900628350188</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DvFg1bvrpq</t>
+          <t>1U2FxjOpZF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Виталий</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Губенко</t>
+          <t>Прокаев</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1263,32 +1255,32 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Валерьевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>933084</t>
+          <t>6206</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>участок вулканизации лент</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1300,23 +1292,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>970522350917</t>
+          <t>860401350758</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>byHPIKoarj</t>
+          <t>NsFpsg6HFr</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Вячеслав </t>
+          <t>Аулехан</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Медюхо</t>
+          <t>Мустафин</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1336,28 +1328,32 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Васильевич </t>
+          <t>Оразбекович</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>933086</t>
+          <t>933111</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>Участок по производству щебня</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1369,23 +1365,23 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>640719300130</t>
+          <t>930108350334</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ET9N376Mua</t>
+          <t>nkiqsKMasG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Евгений</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Якунин</t>
+          <t>Лосев</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1405,61 +1401,65 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>11695</t>
+          <t>933112</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Мастер электромеханик</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>921203350629</t>
+          <t>620919300134</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>uX6caVvHEU</t>
+          <t>fRGlf65Puv</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Антон</t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Кислицын</t>
+          <t>Моисеенко</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1474,60 +1474,60 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Валентинович</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>931296</t>
+          <t>14158</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Служба автоматизации</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Экспериментально-конструкторская группа</t>
+          <t>ЦЗ взрывной</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Инженер по автоматизации производства I категории</t>
+          <t>Горнорабочий</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>960417351318</t>
+          <t>830217350376</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>qwpLvMhqzT</t>
+          <t>oW3DLJTBFy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Мейрам</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Шегреев</t>
+          <t>Матковский</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1547,32 +1547,32 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Рахимбаевич </t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>933058</t>
+          <t>931551</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>ремонтный персонал</t>
+          <t>Участок железнодорожных путей</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту автомобилей (БелАЗ)</t>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1584,28 +1584,28 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>940806350658</t>
+          <t>890509450896</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SZ6AWrYYaJ</t>
+          <t>tbD0T2Ix3a</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Адиль</t>
+          <t>Анастасия</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Жаримбетов</t>
+          <t>Ишбердина</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1620,60 +1620,56 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Шуакбаевич</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>933087</t>
+          <t>7131</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Участок отвалообразования</t>
+          <t>Отдел стандартизации и метрологии</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+          <t>Инженер по метрологии II категории</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>891201351122</t>
+          <t>870323350386</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>eOdaNg6JbO</t>
+          <t>9xLQPU4x9T</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Арслан</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Тлекешов</t>
+          <t>Банцевич</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1693,65 +1689,61 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Жагпарович</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>7321</t>
+          <t>930898</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
-        </is>
-      </c>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>ремонт и содержание ЦДиСХР</t>
+          <t>Производственный отдел</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Горный  диспетчер</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>901119351384</t>
+          <t>581027350025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ccLJlbB1Ud</t>
+          <t>LKHg4dveEC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Артур</t>
+          <t>Тагир</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Штро</t>
+          <t>Мустакимов</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1766,12 +1758,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Яковлевич</t>
+          <t>Жумабаевич</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>931949</t>
+          <t>21185</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1781,17 +1773,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>производственно-техническая служба ЦДиСХР</t>
+          <t>участок по ремонту сантехнического оборудования</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1803,28 +1795,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>010424650305</t>
+          <t>910310450434</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>qTXQGqIR0A</t>
+          <t>xJqTXIPXB1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Евгения</t>
+          <t>Айнура</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Колеснюк </t>
+          <t>Исмагулова</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1839,56 +1831,60 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергеевна </t>
+          <t>Сериковна</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>933088</t>
+          <t>933007</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Участок тепловодоснабжения</t>
+          <t>Отдел кадров</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Оператор котельной </t>
+          <t>Специалист по кадрам</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>960920450261</t>
+          <t>910702350706</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>EU6FZwtfeT</t>
+          <t>cIThA3wF2d</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Жания</t>
+          <t xml:space="preserve">Темиржан </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Сыздыкова</t>
+          <t xml:space="preserve">Ержанов </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1908,65 +1904,61 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Исмагуловна</t>
+          <t xml:space="preserve">Сайлаубаевич </t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>933089</t>
+          <t>933115</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Служба автоматизации</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Экспериментально-конструкторская группа</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Инженер по автоматизации</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>891211400505</t>
+          <t>760226301420</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lZQfbuZ1N5</t>
+          <t>TRs9ESYUVk</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Анастасия</t>
+          <t xml:space="preserve">Александр </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Лоц</t>
+          <t>Штенгауэр</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1981,52 +1973,60 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Анатольевна</t>
+          <t>Кондратьевич</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>931679</t>
+          <t>933116</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Уборщик помещений</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>850325350208</t>
+          <t>890403450502</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>eIKKaQHQb0</t>
+          <t>P5YRcalnGn</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Вячеслав</t>
+          <t>Елена</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Кисель</t>
+          <t>Плотникова</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2046,28 +2046,32 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Михайловна</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>932607</t>
+          <t>6717</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr"/>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2079,28 +2083,28 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>960915350525</t>
+          <t>940128350375</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>oYuU3DkR32</t>
+          <t>TknTiy4hY5</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Мирас</t>
+          <t>Темирлан</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Бурамбаев</t>
+          <t>Катарбаев</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2115,28 +2119,32 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Серимжанович</t>
+          <t>Сандибекович</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>932669</t>
+          <t>930839</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr"/>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2148,28 +2156,28 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>691116350140</t>
+          <t>581020301495</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>De8CY179n3</t>
+          <t>VlL0SOiphS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Ермек</t>
+          <t>Мурат</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Альмухамедов</t>
+          <t>Досмагамбетов</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2182,62 +2190,54 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Нуртазаевич </t>
-        </is>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
-          <t>933091</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Служба управления делами</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Бассейн "Алма-Ата"</t>
-        </is>
-      </c>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Сторож</t>
+          <t>Аккумуляторщик</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>рабочие (непром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>780715301086</t>
+          <t>650825301008</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>t82kuSNVPl</t>
+          <t>WL4sxGUBiY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Марат</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ерёменко</t>
+          <t>Якупов</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2257,56 +2257,56 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Юрьевич</t>
+          <t>Аскарович</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>933090</t>
+          <t>931759</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Отдел по экономике и развитию</t>
+          <t>Цех по ремонту машин</t>
         </is>
       </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Ведущий экономист по планированию и анализу</t>
+          <t>Токарь</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>640325402479</t>
+          <t>690329300833</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>osYGjJcczj</t>
+          <t>0hjIVH7yDC</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Рукиям</t>
+          <t>Серик</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Курбанова</t>
+          <t>Кабылбеков</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2326,24 +2326,32 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Розиевна</t>
+          <t>Сейлханович</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>000007897</t>
+          <t>932215</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Филиал  АО"Костанайские минералы" г. Алматы</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Уборщик служебных помещений</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2355,23 +2363,23 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>810224350390</t>
+          <t>991003350387</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AJ7CyGDtr7</t>
+          <t>kZzQQedtq1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Денис</t>
+          <t>Жандос</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Пластовец</t>
+          <t>Аблякимов</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2391,56 +2399,56 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Мурзабаевич</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>10908</t>
+          <t>932265</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Энергоуправление</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Отдел главного механика</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Ведущий инженер по ТОиР</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>940927350507</t>
+          <t>960517350155</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>huiIcfOYjl</t>
+          <t>RQP7sPknJC</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Кайырхан</t>
+          <t>Айбек</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Мынжасаров</t>
+          <t>Дуйсебаев</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2460,32 +2468,32 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Кайратович</t>
+          <t>Орынбасарович</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>931691</t>
+          <t>932417</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Участок добычи</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (в карьере)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2497,23 +2505,23 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>930219450720</t>
+          <t>000118551039</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>zwAaz7dRz1</t>
+          <t>7NxX80ghWe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Никита</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Цыгулева</t>
+          <t>Подгорный</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2533,56 +2541,56 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Венедиктовна</t>
+          <t>Дмитриевич</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>932067</t>
+          <t>932524</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Энергоуправление</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Отдел по экономике и развитию</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Экономист по труду</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>720806350335</t>
+          <t>971128350195</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A54Ga6GzGA</t>
+          <t>2wn0E0SGTQ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Игорь</t>
+          <t>Вадим</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Грядовкин</t>
+          <t>Зайнутдинов</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2602,32 +2610,32 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Алексеевич</t>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>933092</t>
+          <t>932628</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Токарь</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2639,28 +2647,28 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>790527402447</t>
+          <t>991020450297</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>45qOQ0g3aL</t>
+          <t>XtPgnBv1Eg</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ксения</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Лосева</t>
+          <t>Фадеев</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2675,32 +2683,32 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Павловна</t>
+          <t>Андреевич</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>28057</t>
+          <t>932670</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Участок отвалообразования</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Оператор пульта управления</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2712,28 +2720,28 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>820311450639</t>
+          <t>790225300373</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IrOupOlSLD</t>
+          <t>1nsCfcCpNu</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Анна</t>
+          <t>Михаил</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Ивченко</t>
+          <t>Ан</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2748,12 +2756,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Павловна</t>
+          <t>Михайлович</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>932230</t>
+          <t>933117</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2763,17 +2771,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Машинист крана (крановщик мостового крана)</t>
+          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2785,23 +2793,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>780223403679</t>
+          <t>010427551144</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCtrlvz7UE</t>
+          <t>0oSWOv6UYc</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Асем </t>
+          <t>Рамир</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Бралина</t>
+          <t>Муллагалиев</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2821,61 +2829,65 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Муратовна </t>
+          <t>Ринатович</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>933093</t>
+          <t>932999</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Негосударственная противопожарная служба (ЦК)                  </t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Группа обслуживания                      </t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr"/>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Монтажно-наладочная группа</t>
+        </is>
+      </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Инженер по пожарной безопасности</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>810709400486</t>
+          <t>990902350579</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3fb3yEAR1k</t>
+          <t>Y1g7w8X0SO</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кайырхан </t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Машаев</t>
+          <t>Чагин</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2890,32 +2902,28 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Бахчанович</t>
+          <t>Рушанович</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>931848</t>
+          <t>933016</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Буровзрывной цех</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>ЦЗ автотранспорт зарядный</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Краз компрессор в карьере)</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2927,23 +2935,23 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>820116451171</t>
+          <t>930911350439</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>35ypKlUJNp</t>
+          <t>8JiM5FUZa5</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Карлагаш</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Утарбаева </t>
+          <t xml:space="preserve">Стяжкин </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2963,32 +2971,28 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>КАРЖАУБАЕВНА</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>933094</t>
+          <t>933018</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>Участок группы подстанций и электросетей</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3000,23 +3004,23 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>741007401841</t>
+          <t>950528450546</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nOxhvoSehg</t>
+          <t>Du4BUvHeoM</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юрий </t>
+          <t xml:space="preserve">Дарья </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Елистратов </t>
+          <t xml:space="preserve">Казимирова </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3036,32 +3040,28 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Валерьевич </t>
+          <t xml:space="preserve">Андреевна </t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>933095</t>
+          <t>933102</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>участок по ремонту сантехнического оборудования</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Лаборант асбестообогатительного производства</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -3073,28 +3073,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>670705300982</t>
+          <t>700610400069</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1eecy3nPMZ</t>
+          <t>wAgfigxiOs</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Нуржан</t>
+          <t>Лариса</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Аманов</t>
+          <t>Мустаева</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3109,32 +3109,32 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Жаксылыкович</t>
+          <t>Валентиновна</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>932727</t>
+          <t>28005</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>дизельные автомашины</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (Газ мусоровоз)</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -3146,28 +3146,28 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>611022350313</t>
+          <t>680101352735</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>kA8kMSsdUb</t>
+          <t>YlyWaTGkk6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Юрий</t>
+          <t>Адельбек</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Шишкин</t>
+          <t>Бурантаев</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Анатольевич</t>
+          <t>Бегайдарович</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>932888</t>
+          <t>931512</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>автобусы ПАЗ</t>
+          <t>легковые автомашины</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Водитель автомобиля (ПАЗ)</t>
+          <t>Водитель автомобиля (Уаз )</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -3219,23 +3219,23 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>910228450313</t>
+          <t>600718300297</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>V3T4clDZXZ</t>
+          <t>FGKETLnCon</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мадина </t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Бегалинова </t>
+          <t>Кайкулин</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3255,32 +3255,32 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кайратовна </t>
+          <t>Николаевич</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>933097</t>
+          <t>5673</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Машинист РУМ </t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -3292,23 +3292,23 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>740421300746</t>
+          <t>761230400037</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>qgacbwZGiz</t>
+          <t>c96XQ7CM6h</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Серик </t>
+          <t>Наталья</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Балыкбаев </t>
+          <t>Мащенко</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3328,32 +3328,32 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мухамедгалиевич </t>
+          <t>Валерьевна</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>933098</t>
+          <t>28541</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>механизмы</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Тракторист (Т-150 в карьере)</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -3365,28 +3365,28 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>581017300738</t>
+          <t>621212400912</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ICjKDY3UAT</t>
+          <t>6cpH5sTXzQ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Сексен</t>
+          <t>Мария</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Смаилов</t>
+          <t>Яковец</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3401,32 +3401,32 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Сарсенович</t>
+          <t>Викторовна</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>28815</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Цех вспомогательного транспорта</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>механизмы</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Тракторист (Т-150 в карьере)</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -3438,28 +3438,28 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>960323351109</t>
+          <t>721107350328</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>iuhDuf33Mt</t>
+          <t>xE56QTjytS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Абай</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Коробков</t>
+          <t>Кулманов</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Кибашович</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>932146</t>
+          <t>930919</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3489,17 +3489,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>ЦЗ автотранспорт зарядный</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Тракторист (МТЗ в карьере)</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -3511,23 +3511,23 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>930105350457</t>
+          <t>590601301036</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TMxU0JMMHX</t>
+          <t>KrgHFOYQBw</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Константин</t>
+          <t>Василий</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Плахотников</t>
+          <t>Арцер</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -3547,32 +3547,28 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Валентинович</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>932202</t>
+          <t>25302</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Горный цех</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>Производственная лаборатория технического контроля</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Электрогазосварщик (в карьере)</t>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
@@ -3584,23 +3580,23 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>751109300040</t>
+          <t>680512401058</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3nxnSIsb1S</t>
+          <t>a993NAlqRw</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Салимжан</t>
+          <t>Людмила</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Куантаев</t>
+          <t>Поморцева</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -3620,32 +3616,32 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ердаулетович</t>
+          <t>Рахимжановна</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>932870</t>
+          <t>28215</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3657,23 +3653,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>840724450648</t>
+          <t>660302300325</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PvIgcw2r2v</t>
+          <t>w67AxvCNxV</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Надежда </t>
+          <t>Амантай</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Щербакова </t>
+          <t>Жетписбаев</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3693,32 +3689,24 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергеевна </t>
+          <t>Урынтаевич</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>933099</t>
+          <t>930516</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>производственная служба</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Водитель погрузчика</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3730,23 +3718,23 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>990430450293</t>
+          <t>600101399112</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NUB2nU1HyK</t>
+          <t>BcBNbjhyTE</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Ольга</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Белоцерковская</t>
+          <t xml:space="preserve">Дмитриев </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3766,56 +3754,56 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Дмитриевна</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>933100</t>
+          <t>932145</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Отдел стандартизации и метрологии</t>
-        </is>
-      </c>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Цех по ремонту машин</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Инженер по метрологии II категории</t>
+          <t>Токарь</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>921111450635</t>
+          <t>730211400273</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ivDcsart30</t>
+          <t>3zAAvzdcoP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кристина </t>
+          <t>Светлана</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Романкулова </t>
+          <t>Беккер</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3835,12 +3823,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Владимировна</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>933101</t>
+          <t>932068</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3855,12 +3843,12 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3872,23 +3860,23 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>950528450546</t>
+          <t>611121450184</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>hOkxuPQGyo</t>
+          <t>eOoCCrkiMi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Дарья </t>
+          <t>Маржан</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Казимирова </t>
+          <t>Жумагалиева</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3908,28 +3896,32 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Андреевна </t>
+          <t>Фазыловна</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>933102</t>
+          <t>28192</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Дробильщик</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3941,23 +3933,23 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>930722451179</t>
+          <t>641229350097</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3LaxKk2uGz</t>
+          <t>sXXwjD0RwP</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Нургуль</t>
+          <t>Павел</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Укасова </t>
+          <t>Сафронов</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3977,12 +3969,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Серимжановна</t>
+          <t>Федорович</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>933096</t>
+          <t>21710</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3992,17 +3984,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>производственная служба</t>
+          <t>участок вулканизации лент</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Машинист  ДПСМ</t>
+          <t>Слесарь-инструментальщик</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -4014,23 +4006,23 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>960508350423</t>
+          <t>770309400104</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ALH2kj97Xw</t>
+          <t>j4e9Mregnu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Максим </t>
+          <t>Кымбат</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Данилов</t>
+          <t>Казмухамбетова</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4050,32 +4042,32 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Тулемисовна</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>933105</t>
+          <t>933118</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t xml:space="preserve">Машинист РУМ </t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
@@ -4087,28 +4079,28 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>701103450359</t>
+          <t>821206350703</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WR4k0Xjeqb</t>
+          <t>vwLNYtCboe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Татьяна</t>
+          <t>Азамат</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Гуляева </t>
+          <t>Ажикеев</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4123,24 +4115,32 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Васильевна</t>
+          <t>Бекетович</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>933103</t>
+          <t>931408</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Участок отвалообразования</t>
+        </is>
+      </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Оператор АЗС</t>
+          <t>Помощник машиниста экскаватора (породных отвалов)</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -4152,28 +4152,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>690101352846</t>
+          <t>731124350570</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>dhfI6LFpQ0</t>
+          <t>vPScY1QpXS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t>Андрей</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Марухненко</t>
+          <t>Еремин</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4188,12 +4188,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александрович </t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>933104</t>
+          <t>932715</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4203,17 +4203,17 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Цех технологического транспорта</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>бульдозерный участок</t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Машинист бульдозера (в карьере)</t>
+          <t>Тракторист (МТЗ в карьере сменный)</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -4225,28 +4225,28 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>910121351042</t>
+          <t>750618350207</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WkxrtQo16E</t>
+          <t>4PQGQEUU0P</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Самат</t>
+          <t>Мингали</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Жупанов</t>
+          <t>Базарбаев</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4261,61 +4261,65 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Булатович</t>
+          <t>Кундыбаевич</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>931484</t>
+          <t>933019</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>механизмы</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Мастер подстанций обогатит.комплекса</t>
+          <t>Тракторист (МТЗ в карьере сменный)</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>руководители (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>811121400125</t>
+          <t>901016350541</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6V7aCKT81s</t>
+          <t>5cjdFxBbjW</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Марина</t>
+          <t>Петр</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Жарова</t>
+          <t>Дикман</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4330,12 +4334,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Рагимовна</t>
+          <t>Петрович</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>933106</t>
+          <t>933119</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4345,50 +4349,50 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Буровзрывной цех</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>ЦЗ автотранспорт зарядный</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Нарядчик</t>
+          <t>Слесарь по ремонту автомобилей</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>служащие (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>940611351339</t>
+          <t>581103300547</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4wWJWIxhOq</t>
+          <t>fDE3XxbGyB</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Спорышев</t>
+          <t>Силаев</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4408,7 +4412,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>933107</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4418,17 +4422,17 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Слесарь по ремонту подвижного состава</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -4440,23 +4444,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>581021301321</t>
+          <t>821212350022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CXrDQgMpZS</t>
+          <t>puGcxOB2X8</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Василий</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Арсентьев</t>
+          <t>Цыганец</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4476,32 +4480,32 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Николаевич</t>
+          <t>Степанович</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>23100</t>
+          <t>932554</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4513,23 +4517,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>710831300214</t>
+          <t>900826450765</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EriSDWh4NJ</t>
+          <t>a09G9J2tpb</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Галия</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Воскресенский</t>
+          <t>Кудабаева</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4549,32 +4553,32 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Кадырсеитовна</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>932599</t>
+          <t>932713</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4586,28 +4590,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>720204450120</t>
+          <t>700602301027</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4vxwFwRQiq</t>
+          <t>BDZZ2QCfGU</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Мадина</t>
+          <t>Сапарбай</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Байтышева</t>
+          <t xml:space="preserve">Джакупов </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -4622,28 +4626,32 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Тынышпаевна</t>
+          <t>Бахачьдьенович</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>932089</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Производственная лаборатория технического контроля</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Лаборант асбестообогатительного производства</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4655,23 +4663,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>801029301016</t>
+          <t>870310450503</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>hh2Boe5shG</t>
+          <t>4yfUVN2Lr9</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Анатолий</t>
+          <t>Александра</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Петров</t>
+          <t>Вагнер</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4691,32 +4699,32 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Андреевна</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>932440</t>
+          <t>932170</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Участок СЦБ</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Электромонтёр по обслуживанию и ремонту устройств сигнализации, централизации и блокировки</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4728,23 +4736,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>760916350241</t>
+          <t>600313350442</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>iveD00BMbr</t>
+          <t>iwkVScNR5x</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сергей </t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Прокофьев </t>
+          <t xml:space="preserve">Кулаков </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -4769,27 +4777,27 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>933003</t>
+          <t>932296</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>автобусы</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Водитель автомобиля (МАЗ)</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4801,28 +4809,28 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>780103300328</t>
+          <t>840523350064</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>u7Wba83fko</t>
+          <t>4089M8QGK7</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Алексей </t>
+          <t>Владимир</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Переверзин</t>
+          <t>Сиренченко</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4837,32 +4845,32 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Витальевич</t>
+          <t>Владимирович</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>933004</t>
+          <t>932730</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех вспомогательного транспорта</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Пункт технического осмотра</t>
+          <t>автобусы ПАЗ</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Слесарь по ремонту подвижного состава</t>
+          <t>Водитель автомобиля (ПАЗ)</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -4874,23 +4882,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>810809350688</t>
+          <t>970522350917</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5eRvcBUBvB</t>
+          <t>r4lAl4MIDN</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t xml:space="preserve">Вячеслав </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Арсентьев </t>
+          <t>Медюхо</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4910,32 +4918,28 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Васильевич</t>
+          <t xml:space="preserve">Васильевич </t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>933108</t>
+          <t>933086</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>Служба по ремонту оборудования</t>
-        </is>
-      </c>
+          <t>Энергоуправление</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>Участок тепловодоснабжения</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Электромонтер по ремонту и обслуживанию электрооборудования</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4947,23 +4951,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>010319551608</t>
+          <t>930603350741</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>eYKPKwhvJJ</t>
+          <t>EZhwS6G5tJ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Турар</t>
+          <t>Курмантай</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ахбердиев</t>
+          <t>Абишев</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -4983,24 +4987,28 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Сабитбекулы</t>
+          <t>Сапарбекович</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>933109</t>
+          <t>932151</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+          <t>Энергоуправление</t>
         </is>
       </c>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Участок группы подстанций и электросетей</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Грузчик</t>
+          <t>Электромонтёр по эксплуатации распределительных сетей</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -5012,23 +5020,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>750430300390</t>
+          <t>880924350081</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tE7kg79q53</t>
+          <t>RuVBAdrt2l</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t>Дмитрий</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Свиридов</t>
+          <t>Лавров</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5048,32 +5056,32 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Валерьевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>933110</t>
+          <t>933129</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех технологического транспорта</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>участок по капитальному ремонту</t>
+          <t>вывозка г/м БелАЗ</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Водитель автомобиля (БелАЗ-7555 на вывозке горной массы в карьере)</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
@@ -5085,23 +5093,23 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>930330350798</t>
+          <t>870515451388</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>l6QP2eyIjK</t>
+          <t>xQVaiLzsSs</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Канат</t>
+          <t>Юлия</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Жакупов</t>
+          <t>Козицкая</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5121,32 +5129,32 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Ермекович</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>930407</t>
+          <t>933120</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>ремонт и содержание</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
+          <t>Машинист ВАУ</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
@@ -5158,23 +5166,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>900628350188</t>
+          <t>780806350168</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>QFDkbk6CnR</t>
+          <t>HTb4vIOH5V</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Виталий</t>
+          <t>Яков</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Прокаев</t>
+          <t>Штро</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -5194,32 +5202,32 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Викторович</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>6206</t>
+          <t>933128</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>участок по капитальному ремонту</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -5231,23 +5239,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>860401350758</t>
+          <t>780709301579</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>85Du4nz7i4</t>
+          <t>q8j4YqVPD8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Аулехан</t>
+          <t>Евгений</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Мустафин</t>
+          <t>Архипов</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -5267,32 +5275,32 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Оразбекович</t>
+          <t>Вячеславович</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>933111</t>
+          <t>933124</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Цех дробления и сортировки хризотиловых руд</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Участок по производству щебня</t>
+          <t>Участок железнодорожных путей</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Дробильщик</t>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -5304,23 +5312,23 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>930108350334</t>
+          <t>990914351018</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>vHyU2BTX31</t>
+          <t>DkY4UUWM9r</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Владислав</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Лосев</t>
+          <t>Капинос</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -5340,32 +5348,24 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Викторович</t>
+          <t>Васильевич</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>933112</t>
+          <t>933125</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>Цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>цех обогащения хризотилового волокна</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Складское хозяйство АО (К)                     </t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Грузчик</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -5377,23 +5377,23 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>620919300134</t>
+          <t>950923351466</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AQKr9MXBZe</t>
+          <t>FfAqNeIHZT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Андрей</t>
+          <t>Асхат</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Моисеенко</t>
+          <t>Курмангалиев</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5413,32 +5413,32 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Валентинович</t>
+          <t>Куанышевич</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>14158</t>
+          <t>932934</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Буровзрывной цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>ЦЗ взрывной</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Горнорабочий</t>
+          <t>Электрогазосварщик</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
@@ -5450,28 +5450,28 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>830217350376</t>
+          <t>831231450391</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0MX3DASk2P</t>
+          <t>LMMuTx8rwO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Олеся</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Матковский</t>
+          <t>Гущерева</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5486,32 +5486,32 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Рамильевна</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>931551</t>
+          <t>933121</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Участок железнодорожных путей</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>Дорожно-путевой рабочий (в карьере)</t>
+          <t xml:space="preserve">Машинист РУМ </t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
@@ -5523,28 +5523,28 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>890509450896</t>
+          <t>840610451051</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>jNQLEqSJiz</t>
+          <t>xl8zaqWBVo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Анастасия</t>
+          <t>Любовь</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ишбердина</t>
+          <t>Мырза</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5559,56 +5559,60 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Александровна</t>
+          <t>Викторовна</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>7131</t>
+          <t>933122</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Отдел стандартизации и метрологии</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Инженер по метрологии II категории</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>870323350386</t>
+          <t>911101451617</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>xyfTn7V7td</t>
+          <t>540AkEeJQg</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Дмитрий</t>
+          <t>Зарина</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Банцевич</t>
+          <t>Горчешник</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5628,61 +5632,65 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Владимирович</t>
+          <t>Андреевна</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>930898</t>
+          <t>933123</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Производственный отдел</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Горный  диспетчер</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>581027350025</t>
+          <t>921029450658</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>XWSn27S4Vr</t>
+          <t>U4EOjtX3GU</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Тагир</t>
+          <t>Елизавета</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Мустакимов</t>
+          <t>Сабадырь</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5697,12 +5705,12 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Жумабаевич</t>
+          <t>Алексеевна</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>21185</t>
+          <t>933126</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5712,17 +5720,17 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>участок по ремонту сантехнического оборудования</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
@@ -5734,28 +5742,28 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>910310450434</t>
+          <t>881205450715</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>U4P2FHJEaY</t>
+          <t>SoCb9OV9i2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Айнура</t>
+          <t>Ариана</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Исмагулова</t>
+          <t>Морозова</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>false</t>
+          <t>true</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5770,60 +5778,60 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Сериковна</t>
+          <t>Анатольевна</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>933007</t>
+          <t>933127</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Служба управления персоналом</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Отдел кадров</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Специалист по кадрам</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>специалисты (пром)</t>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>910702350706</t>
+          <t>710804300257</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>LLoiLNLEQl</t>
+          <t>E5wojPVUp0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Темиржан </t>
+          <t>Валерий</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ержанов </t>
+          <t>Павленко</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -5843,28 +5851,32 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Сайлаубаевич </t>
+          <t>Дмитриевич</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>933115</t>
+          <t>933130</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>ЦЗ УММ</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист железнодорожно-строительных (путевых) машин</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
@@ -5876,23 +5888,23 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>760226301420</t>
+          <t>820322451290</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>VJd8QfIET4</t>
+          <t>jOPq5s97FJ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Александр </t>
+          <t>Ирина</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Штенгауэр</t>
+          <t>Василенко</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -5912,32 +5924,32 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Кондратьевич</t>
+          <t>Михайловна</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>933116</t>
+          <t>933131</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>ЦЗ осушение карьера</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>Электрослесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
@@ -5949,28 +5961,28 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>890403450502</t>
+          <t>581109301499</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ZY9ExQFOBt</t>
+          <t>ucTElxbw7E</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Елена</t>
+          <t>Булат</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Плотникова</t>
+          <t>Кульназаров</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5985,32 +5997,32 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Михайловна</t>
+          <t>Нагашбаевич</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>6717</t>
+          <t>10861</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Цех обогащения хризотилового волокна</t>
+          <t>Горный цех</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>цех обогащения хризотилового волокна</t>
+          <t>Участок добычи</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>Машинист РУМ</t>
+          <t>Машинист экскаватора (в карьере)</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
@@ -6022,23 +6034,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>940128350375</t>
+          <t>810114350687</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Bd0Uab9ahw</t>
+          <t>WL5P8tZPO2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Темирлан</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Катарбаев</t>
+          <t>Лебедь</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6058,12 +6070,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Сандибекович</t>
+          <t>Александрович</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>930839</t>
+          <t>932906</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6078,7 +6090,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>участок по ремонту ГПМ</t>
+          <t>ремонтники ЦО</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -6095,23 +6107,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>581020301495</t>
+          <t>980703451035</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>pguYC7Jz3j</t>
+          <t>NwWd6b2VP5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Мурат</t>
+          <t>Александра</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Досмагамбетов</t>
+          <t>Кондрацкая</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6129,26 +6141,34 @@
           <t>User</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Богдановна</t>
+        </is>
+      </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>933133</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Автотранспортное предприятие</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Цех по ремонту машин</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr"/>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Аккумуляторщик</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
@@ -6160,23 +6180,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>690329300833</t>
+          <t>870118350345</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WM8vWEvcy2</t>
+          <t>Mf2dSlYtFA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Серик</t>
+          <t>Рамиль</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Кабылбеков</t>
+          <t>Ахметов</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6196,12 +6216,12 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Сейлханович</t>
+          <t>Гумарович</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>932215</t>
+          <t>4701</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -6211,45 +6231,41 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Цех по ремонту горно-транспортного оборудования</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Депо подвижного состава                  </t>
-        </is>
-      </c>
+          <t>Управление ГТК</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Инженер по ТОиР</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>рабочие (пром)</t>
+          <t>специалисты (пром)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>991003350387</t>
+          <t>740908401014</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>dnRXu4OfNd</t>
+          <t>CTl8zotUQl</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Жандос</t>
+          <t>Юлия</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Аблякимов</t>
+          <t>Гавриленко</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -6269,28 +6285,32 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Мурзабаевич</t>
+          <t>Александровна</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>932265</t>
+          <t>28121</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>цех обогащения хризотилового волокна</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист РУМ</t>
         </is>
       </c>
       <c r="O82" t="inlineStr">
@@ -6302,28 +6322,28 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>960517350155</t>
+          <t>000501550220</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>u6fAp3KcNC</t>
+          <t>l6DhDB05NW</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Айбек</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Дуйсебаев</t>
+          <t>Хлюстов</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6338,32 +6358,32 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Орынбасарович</t>
+          <t>Евгеньевич</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>932417</t>
+          <t>932767</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t>Горно-транспортный комплекс</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Железнодорожный цех</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>Участок железнодорожных путей</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
         </is>
       </c>
       <c r="O83" t="inlineStr">
@@ -6375,23 +6395,23 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>971128350195</t>
+          <t>030319550267</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>AibIroPDdx</t>
+          <t>HzJkbItkVl</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Вадим</t>
+          <t>Данил</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Зайнутдинов</t>
+          <t>Цыгель</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -6411,32 +6431,32 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Евгеньевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>932628</t>
+          <t>933011</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Обогатительный комплекс</t>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Служба автоматизации</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>Группа по ремонту и обслуживанию средств автоматизации</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
         </is>
       </c>
       <c r="O84" t="inlineStr">
@@ -6448,28 +6468,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>991020450297</t>
+          <t>860811350876</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>24FIMIeEsX</t>
+          <t>z2Sw8OiWBX</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Владимир</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Фадеев</t>
+          <t>Морозов</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>true</t>
+          <t>false</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6484,32 +6504,32 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Андреевич</t>
+          <t>Сергеевич</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>932670</t>
+          <t>933020</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Автотранспортное предприятие</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Горный цех</t>
+          <t>Цех технологического транспорта</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Участок отвалообразования</t>
+          <t>спецтранспорт</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>Помощник машиниста экскаватора (породных отвалов)</t>
+          <t>Водитель автомобиля (БелАЗ поливомоечная, щебнеразбрасыватель)</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
@@ -6521,23 +6541,23 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>790225300373</t>
+          <t>841002450546</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>uogVRfC6t0</t>
+          <t>NjvPY2rWTC</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Михаил</t>
+          <t>Ольга</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ан</t>
+          <t>Мороз</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -6557,32 +6577,32 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Михайлович</t>
+          <t>Константиновна</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>933117</t>
+          <t>933136</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Горно-транспортный комплекс</t>
+          <t>Обогатительный комплекс</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Железнодорожный цех</t>
+          <t>Служба по ремонту оборудования</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Участок подвижного состава</t>
+          <t>участок по ремонту ГПМ</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>Помощник машиниста тягового агрегата (на вывозке горной массы)</t>
+          <t>Машинист крана</t>
         </is>
       </c>
       <c r="O86" t="inlineStr">
@@ -6594,23 +6614,23 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>950923351466</t>
+          <t>810824450488</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>lZcp3bBvPI</t>
+          <t>wkk1FxVSNA</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Асхат</t>
+          <t>Динара</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Курмангалиев</t>
+          <t>Блеутенова</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -6630,12 +6650,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Куанышевич</t>
+          <t>Елеутаевна</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>932934</t>
+          <t>933132</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6645,17 +6665,17 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Служба по ремонту оборудования</t>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>ремонтники ЦО</t>
+          <t>производственно-техническая служба ЦДиСХР</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>Электрогазосварщик</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6667,23 +6687,23 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>990902350579</t>
+          <t>820916451246</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ccTjcTkyy8</t>
+          <t>3NRronljQk</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Александр</t>
+          <t>Роза</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Чагин</t>
+          <t>Кох</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -6703,28 +6723,32 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Рушанович</t>
+          <t>Федоровна</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>933016</t>
+          <t>933135</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr"/>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>производственная служба</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист  ДПСМ</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6736,23 +6760,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>930911350439</t>
+          <t>730227301609</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>N2NNBnyXTv</t>
+          <t>zZ6VJz9GVl</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Валихан</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Стяжкин </t>
+          <t>Омаров</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -6772,28 +6796,32 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Сергеевич</t>
+          <t>Ауезканович</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>933018</t>
+          <t>933134</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Энергоуправление</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Участок группы подстанций и электросетей</t>
+          <t>Участок подвижного состава</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Электромонтёр по эксплуатации распределительных сетей</t>
+          <t>Машинист тягового агрегата (на вывозке горной массы)</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6805,23 +6833,23 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>970801351179</t>
+          <t>621015300291</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DWMdvKg5ru</t>
+          <t>8j4pDp71W4</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Богдан</t>
+          <t>Сергей</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Андриенко</t>
+          <t>Лопатин</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6841,37 +6869,2503 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
+          <t>Дмитриевич</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>6432</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>автобусы ПАЗ</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (ПАЗ)</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>981229350215</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>7HsnBr5FUS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Компаниец</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>932059</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Служба автоматизации</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Экспериментально-конструкторская группа</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (ОК)</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>720115400235</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>oJYirEMTfx</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Умсундык</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Жасакбаева</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Жалкыбаевна  </t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>930265</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Машинист РУМ </t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>691007300419</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>fIDX6xbdUZ</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Серик</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Мутлапов</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Рамазанович</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>3193</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Стадион "Горняк"</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Рабочий по комплексному обслуживанию</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>рабочие (непром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>781231350096</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>iEPKnouVgX</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Антонов</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>Николаевич</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>931777</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Управа</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>ОИТ</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>Управа</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Управа</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>Управа</t>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>7280</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Дорожно-путевой рабочий (в карьере)</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>741226300342</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RBnn0cWVvn</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Анатолий</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Бабенко</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Геннадьевич</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>931217</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Служба управления делами</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Административно-хозяйственный отдел</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Подсобный рабочий</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>721027400195</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>5k6CLaMAGk</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Надежда</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Исаак</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Валерьевна</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>933139</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Участок железнодорожных путей</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Распределитель работ</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>960215351327</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>yTeoj1KFyT</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ердан</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Баярстанов</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Нурланович</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>932350</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>950924351550</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SMH6DzuNvG</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Орловский</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>932603</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>880609350366</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cq4hveRy6I</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Виктор</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Шугай</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Иванович</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>932615</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>ремонтники ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>670222300223</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ybsp6LWBuF</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Толеубай</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Батталов</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Мынбаевич</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>932622</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>990515350279</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>QE6JKFQzfI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Григорий</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Стяжкин</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Сергеевич</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>933137</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>ЦЗ осушение карьера</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования (в карьере)</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>610627301361</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>033F2Yv3MU</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Островский</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Антонович</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>933138</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>750615450488</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>KuaaHFlDNA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Куралай</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Беркимбаева</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Тлектесовна</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>933143</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Служба управления персоналом</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Отдел кадров</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Специалист по кадрам</t>
+        </is>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>771230300914</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>J6jrDnxj0r</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Руслан</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Жакупов</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Николаевич</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>участок по капитальному ремонту</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>670127450339</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>G4NFy2pwA2</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Надежда</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Климова</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>4289</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Машинист крана (крановщик железнодорожного крана)</t>
+        </is>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>940822450493</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>S0q0izSa8p</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Любовь</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Нэйв</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Исенкельдиновна</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>933140</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Участок подвижного состава</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Нарядчик</t>
+        </is>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>служащие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>821122351319</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>pZaiCiuZO2</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Талгат</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Кульмурзин</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Байгонсович</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>6798</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Цех дробления и сортировки хризотиловых руд</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>сушка руды</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Сушильщик</t>
+        </is>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>761209350617</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>VtucfD9HBB</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Жанибек</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бекетов </t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Бекетович</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>931669</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>821024350972</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2xBPxEef54</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Айдос</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Баекенов</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Амантайевич</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>932331</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик (сменный персонал)</t>
+        </is>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>870826350601</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CGj4PX7kkn</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Данияр</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Романкулов</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Серикжанович</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>933142</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>620518300223</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8DA61DMi93</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Серженко</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>933141</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Горный цех</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Участок добычи</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Машинист экскаватора (в карьере)</t>
+        </is>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>871105350426</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SltxfIhjiE</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Максим</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Петров</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Анатольевич</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>932748</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>участок по ремонту ГПМ</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>980503350271</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>hywJQvJKBA</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Николай</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Шарипов</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Евгеньевич</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>932093</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>участок по ремонту сантехнического оборудования</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>860809450366</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>k1MWzBX97K</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Асель</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Кужахметова</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Булатовна</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>932482</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Служба по эксплуатации транспорта</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>Оператор движения на автомобильном транспорте</t>
+        </is>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>820429351177</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3IUrl2Fsk3</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr"/>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Михаил</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Газукин</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Александрович</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>2028</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>бригада дежурного персонала ЦОхв</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>Электрослесарь по обслуживанию и ремонту оборудования (сменный персонал)</t>
+        </is>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>910705450471</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>p8tb4xw8Iq</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Жанат</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Абилева</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Сабитовна</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>7113</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Технический отдел</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Инженер</t>
+        </is>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>610829300420</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>OIaTZjPiwD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr"/>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Ивченко</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Викторович</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>46505</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Железнодорожный цех</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Пункт технического осмотра</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>990430450293</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>AKzzRPZ9HX</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Ольга</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Белоцерковская</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Дмитриевна</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>933144</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Отдел стандартизации и метрологии</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Инженер по метрологии II категории</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>940110301418</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Sx2e58jHCH</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Сагындык</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Шиндаулетов </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Куандыкович </t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>933145</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>Автотранспортное предприятие</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Цех вспомогательного транспорта</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>карбюраторные автомашины</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Водитель автомобиля (Уаз )</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>690803300423</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>hyQ2T0VQaT</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Вячислав</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Мелихов</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Юрьевич</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>933146</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Горно-транспортный комплекс</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Цех по ремонту горно-транспортного оборудования</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Депо подвижного состава                  </t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Слесарь по ремонту подвижного состава</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>911212450236</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>9K9B2tJ6hH</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Виктория</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Петрова </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Алексеевна</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>930695</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Цех обогащения хризотилового волокна</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>производственная служба</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>Машинист  ДПСМ</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>611118400771</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>uaYblT1Z9O</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Галина</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Декуша</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Николаевна</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>2045</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Управление предприятия (ЦК)                    </t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Производственно-аналитический отдел</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>Диспетчер</t>
+        </is>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>специалисты (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>980121350364</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Fvc925WUu6</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Нурутдинов</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Владимирович</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>932626</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>ремонтники ЦДиСХР</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>Электрогазосварщик</t>
+        </is>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>910302350721</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ZYXhfylEcA</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Алмас</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Орунбаев</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>true</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>false</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Серикович</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>931193</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Обогатительный комплекс</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Служба по ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>ремонтники ЦО</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>Слесарь по обслуживанию и ремонту оборудования</t>
+        </is>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>рабочие (пром)</t>
         </is>
       </c>
     </row>
